--- a/Hodiny_Cap.xlsx
+++ b/Hodiny_Cap.xlsx
@@ -3,29 +3,30 @@
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="600" firstSheet="0" activeTab="5" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="3120" yWindow="3120" windowWidth="18000" windowHeight="9810" tabRatio="600" firstSheet="0" activeTab="1" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet name="VZOR JAK VYPLNIT" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="Zálohy " sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="Zálohy" sheetId="2" state="visible" r:id="rId2"/>
     <sheet name="Týden" sheetId="3" state="visible" r:id="rId3"/>
     <sheet name="Týden 38" sheetId="4" state="visible" r:id="rId4"/>
     <sheet name="Týden 39" sheetId="5" state="visible" r:id="rId5"/>
     <sheet name="Týden 40" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
-  <calcPr calcId="191028" fullCalcOnLoad="1"/>
+  <calcPr calcId="191029" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="5">
+  <numFmts count="6">
     <numFmt numFmtId="164" formatCode="d/m;@"/>
     <numFmt numFmtId="165" formatCode="#,##0\ [$€-1];[Red]\-#,##0\ [$€-1]"/>
     <numFmt numFmtId="166" formatCode="#,##0\ [$Kč-405]"/>
     <numFmt numFmtId="167" formatCode="#,##0\ [$€-1]"/>
-    <numFmt numFmtId="168" formatCode="#,##0\ &quot;Kč&quot;;[Red]\-#,##0\ &quot;Kč&quot;"/>
+    <numFmt numFmtId="168" formatCode="yyyy\-mm\-dd"/>
+    <numFmt numFmtId="169" formatCode="yyyy-mm-dd"/>
   </numFmts>
   <fonts count="13">
     <font>
@@ -367,7 +368,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="90">
+  <cellXfs count="92">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="3" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
@@ -500,7 +501,6 @@
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
@@ -519,9 +519,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="0" fillId="4" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="168" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
@@ -550,50 +560,47 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="2" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="2" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="2" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="2" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normální" xfId="0" builtinId="0"/>
@@ -979,66 +986,65 @@
       <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="9.14453125" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
-    <col width="28.515625" customWidth="1" style="67" min="1" max="1"/>
-    <col width="9.81640625" customWidth="1" style="67" min="2" max="2"/>
-    <col width="9.55078125" customWidth="1" style="67" min="3" max="3"/>
-    <col width="10.0859375" customWidth="1" style="67" min="4" max="4"/>
-    <col width="10.22265625" customWidth="1" style="67" min="5" max="5"/>
-    <col width="9.14453125" customWidth="1" style="67" min="6" max="8"/>
-    <col width="13.1796875" customWidth="1" style="67" min="9" max="9"/>
-    <col width="9.14453125" customWidth="1" style="67" min="10" max="94"/>
-    <col width="9.14453125" customWidth="1" style="67" min="95" max="16384"/>
+    <col width="28.5703125" customWidth="1" style="70" min="1" max="1"/>
+    <col width="9.85546875" customWidth="1" style="70" min="2" max="2"/>
+    <col width="9.5703125" customWidth="1" style="70" min="3" max="3"/>
+    <col width="10.140625" customWidth="1" style="70" min="4" max="4"/>
+    <col width="10.28515625" customWidth="1" style="70" min="5" max="5"/>
+    <col width="9.140625" customWidth="1" style="70" min="6" max="8"/>
+    <col width="13.140625" customWidth="1" style="70" min="9" max="9"/>
+    <col width="9.140625" customWidth="1" style="70" min="10" max="95"/>
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="71" t="n"/>
+      <c r="A1" s="74" t="n"/>
     </row>
     <row r="2"/>
     <row r="3">
-      <c r="B3" s="68" t="inlineStr">
+      <c r="B3" s="71" t="inlineStr">
         <is>
           <t>Týden: 43</t>
         </is>
       </c>
-      <c r="C3" s="62" t="n"/>
+      <c r="C3" s="65" t="n"/>
     </row>
     <row r="4">
-      <c r="B4" s="68" t="inlineStr">
+      <c r="B4" s="71" t="inlineStr">
         <is>
           <t>NÁZEV PROJEKTU : Eis</t>
         </is>
       </c>
-      <c r="C4" s="61" t="n"/>
-      <c r="D4" s="61" t="n"/>
-      <c r="E4" s="61" t="n"/>
-      <c r="F4" s="61" t="n"/>
-      <c r="G4" s="61" t="n"/>
-      <c r="H4" s="61" t="n"/>
-      <c r="I4" s="62" t="n"/>
+      <c r="C4" s="64" t="n"/>
+      <c r="D4" s="64" t="n"/>
+      <c r="E4" s="64" t="n"/>
+      <c r="F4" s="64" t="n"/>
+      <c r="G4" s="64" t="n"/>
+      <c r="H4" s="64" t="n"/>
+      <c r="I4" s="65" t="n"/>
     </row>
     <row r="5">
-      <c r="A5" s="71" t="n"/>
+      <c r="A5" s="74" t="n"/>
       <c r="B5" s="35" t="inlineStr">
         <is>
           <t>Pondělí</t>
         </is>
       </c>
       <c r="C5" s="35" t="n"/>
-      <c r="D5" s="77" t="n"/>
-      <c r="E5" s="77" t="n"/>
-      <c r="F5" s="77" t="n"/>
-      <c r="G5" s="77" t="n"/>
-      <c r="H5" s="77" t="n"/>
-      <c r="I5" s="63" t="inlineStr">
+      <c r="D5" s="84" t="n"/>
+      <c r="E5" s="84" t="n"/>
+      <c r="F5" s="84" t="n"/>
+      <c r="G5" s="84" t="n"/>
+      <c r="H5" s="84" t="n"/>
+      <c r="I5" s="66" t="inlineStr">
         <is>
           <t>HODINY CELKEM</t>
         </is>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="70" t="inlineStr">
+      <c r="A6" s="73" t="inlineStr">
         <is>
           <t>Jméno pracovníka:</t>
         </is>
@@ -1052,10 +1058,10 @@
       <c r="F6" s="6" t="n"/>
       <c r="G6" s="6" t="n"/>
       <c r="H6" s="6" t="n"/>
-      <c r="I6" s="64" t="n"/>
+      <c r="I6" s="67" t="n"/>
     </row>
     <row r="7">
-      <c r="A7" s="71" t="n"/>
+      <c r="A7" s="74" t="n"/>
       <c r="B7" s="8" t="inlineStr">
         <is>
           <t>7 - 19</t>
@@ -1067,7 +1073,7 @@
       <c r="F7" s="7" t="n"/>
       <c r="G7" s="7" t="n"/>
       <c r="H7" s="7" t="n"/>
-      <c r="I7" s="65" t="n"/>
+      <c r="I7" s="68" t="n"/>
     </row>
     <row r="8">
       <c r="A8" s="11" t="inlineStr">
@@ -1078,12 +1084,12 @@
       <c r="B8" s="9" t="n">
         <v>11</v>
       </c>
-      <c r="C8" s="68" t="n"/>
-      <c r="D8" s="68" t="n"/>
-      <c r="E8" s="68" t="n"/>
-      <c r="F8" s="68" t="n"/>
-      <c r="G8" s="68" t="n"/>
-      <c r="H8" s="68" t="n"/>
+      <c r="C8" s="71" t="n"/>
+      <c r="D8" s="71" t="n"/>
+      <c r="E8" s="71" t="n"/>
+      <c r="F8" s="71" t="n"/>
+      <c r="G8" s="71" t="n"/>
+      <c r="H8" s="71" t="n"/>
       <c r="I8" s="5">
         <f>SUM(B8:H8)</f>
         <v/>
@@ -1091,13 +1097,13 @@
     </row>
     <row r="9">
       <c r="A9" s="17" t="n"/>
-      <c r="B9" s="68" t="n"/>
-      <c r="C9" s="68" t="n"/>
-      <c r="D9" s="68" t="n"/>
-      <c r="E9" s="68" t="n"/>
-      <c r="F9" s="68" t="n"/>
-      <c r="G9" s="68" t="n"/>
-      <c r="H9" s="68" t="n"/>
+      <c r="B9" s="71" t="n"/>
+      <c r="C9" s="71" t="n"/>
+      <c r="D9" s="71" t="n"/>
+      <c r="E9" s="71" t="n"/>
+      <c r="F9" s="71" t="n"/>
+      <c r="G9" s="71" t="n"/>
+      <c r="H9" s="71" t="n"/>
       <c r="I9" s="5">
         <f>SUM(B9:H9)</f>
         <v/>
@@ -1105,13 +1111,13 @@
     </row>
     <row r="10">
       <c r="A10" s="17" t="n"/>
-      <c r="B10" s="68" t="n"/>
-      <c r="C10" s="68" t="n"/>
-      <c r="D10" s="68" t="n"/>
-      <c r="E10" s="68" t="n"/>
-      <c r="F10" s="68" t="n"/>
-      <c r="G10" s="68" t="n"/>
-      <c r="H10" s="68" t="n"/>
+      <c r="B10" s="71" t="n"/>
+      <c r="C10" s="71" t="n"/>
+      <c r="D10" s="71" t="n"/>
+      <c r="E10" s="71" t="n"/>
+      <c r="F10" s="71" t="n"/>
+      <c r="G10" s="71" t="n"/>
+      <c r="H10" s="71" t="n"/>
       <c r="I10" s="5">
         <f>SUM(B10:H10)</f>
         <v/>
@@ -1119,13 +1125,13 @@
     </row>
     <row r="11">
       <c r="A11" s="17" t="n"/>
-      <c r="B11" s="68" t="n"/>
-      <c r="C11" s="68" t="n"/>
-      <c r="D11" s="68" t="n"/>
-      <c r="E11" s="68" t="n"/>
-      <c r="F11" s="68" t="n"/>
-      <c r="G11" s="68" t="n"/>
-      <c r="H11" s="68" t="n"/>
+      <c r="B11" s="71" t="n"/>
+      <c r="C11" s="71" t="n"/>
+      <c r="D11" s="71" t="n"/>
+      <c r="E11" s="71" t="n"/>
+      <c r="F11" s="71" t="n"/>
+      <c r="G11" s="71" t="n"/>
+      <c r="H11" s="71" t="n"/>
       <c r="I11" s="5">
         <f>SUM(B11:H11)</f>
         <v/>
@@ -1133,13 +1139,13 @@
     </row>
     <row r="12">
       <c r="A12" s="17" t="n"/>
-      <c r="B12" s="68" t="n"/>
-      <c r="C12" s="68" t="n"/>
-      <c r="D12" s="68" t="n"/>
-      <c r="E12" s="68" t="n"/>
-      <c r="F12" s="68" t="n"/>
-      <c r="G12" s="68" t="n"/>
-      <c r="H12" s="68" t="n"/>
+      <c r="B12" s="71" t="n"/>
+      <c r="C12" s="71" t="n"/>
+      <c r="D12" s="71" t="n"/>
+      <c r="E12" s="71" t="n"/>
+      <c r="F12" s="71" t="n"/>
+      <c r="G12" s="71" t="n"/>
+      <c r="H12" s="71" t="n"/>
       <c r="I12" s="5">
         <f>SUM(B12:H12)</f>
         <v/>
@@ -1147,13 +1153,13 @@
     </row>
     <row r="13">
       <c r="A13" s="17" t="n"/>
-      <c r="B13" s="68" t="n"/>
-      <c r="C13" s="68" t="n"/>
-      <c r="D13" s="68" t="n"/>
-      <c r="E13" s="68" t="n"/>
-      <c r="F13" s="68" t="n"/>
-      <c r="G13" s="68" t="n"/>
-      <c r="H13" s="68" t="n"/>
+      <c r="B13" s="71" t="n"/>
+      <c r="C13" s="71" t="n"/>
+      <c r="D13" s="71" t="n"/>
+      <c r="E13" s="71" t="n"/>
+      <c r="F13" s="71" t="n"/>
+      <c r="G13" s="71" t="n"/>
+      <c r="H13" s="71" t="n"/>
       <c r="I13" s="5">
         <f>SUM(B13:H13)</f>
         <v/>
@@ -1161,13 +1167,13 @@
     </row>
     <row r="14">
       <c r="A14" s="17" t="n"/>
-      <c r="B14" s="68" t="n"/>
-      <c r="C14" s="68" t="n"/>
-      <c r="D14" s="68" t="n"/>
-      <c r="E14" s="68" t="n"/>
-      <c r="F14" s="68" t="n"/>
-      <c r="G14" s="68" t="n"/>
-      <c r="H14" s="68" t="n"/>
+      <c r="B14" s="71" t="n"/>
+      <c r="C14" s="71" t="n"/>
+      <c r="D14" s="71" t="n"/>
+      <c r="E14" s="71" t="n"/>
+      <c r="F14" s="71" t="n"/>
+      <c r="G14" s="71" t="n"/>
+      <c r="H14" s="71" t="n"/>
       <c r="I14" s="5">
         <f>SUM(B14:H14)</f>
         <v/>
@@ -1175,13 +1181,13 @@
     </row>
     <row r="15">
       <c r="A15" s="17" t="n"/>
-      <c r="B15" s="68" t="n"/>
-      <c r="C15" s="68" t="n"/>
-      <c r="D15" s="68" t="n"/>
-      <c r="E15" s="68" t="n"/>
-      <c r="F15" s="68" t="n"/>
-      <c r="G15" s="68" t="n"/>
-      <c r="H15" s="68" t="n"/>
+      <c r="B15" s="71" t="n"/>
+      <c r="C15" s="71" t="n"/>
+      <c r="D15" s="71" t="n"/>
+      <c r="E15" s="71" t="n"/>
+      <c r="F15" s="71" t="n"/>
+      <c r="G15" s="71" t="n"/>
+      <c r="H15" s="71" t="n"/>
       <c r="I15" s="5">
         <f>SUM(B15:H15)</f>
         <v/>
@@ -1189,13 +1195,13 @@
     </row>
     <row r="16">
       <c r="A16" s="17" t="n"/>
-      <c r="B16" s="68" t="n"/>
-      <c r="C16" s="68" t="n"/>
-      <c r="D16" s="68" t="n"/>
-      <c r="E16" s="68" t="n"/>
-      <c r="F16" s="68" t="n"/>
-      <c r="G16" s="68" t="n"/>
-      <c r="H16" s="68" t="n"/>
+      <c r="B16" s="71" t="n"/>
+      <c r="C16" s="71" t="n"/>
+      <c r="D16" s="71" t="n"/>
+      <c r="E16" s="71" t="n"/>
+      <c r="F16" s="71" t="n"/>
+      <c r="G16" s="71" t="n"/>
+      <c r="H16" s="71" t="n"/>
       <c r="I16" s="5">
         <f>SUM(B16:H16)</f>
         <v/>
@@ -1203,13 +1209,13 @@
     </row>
     <row r="17">
       <c r="A17" s="17" t="n"/>
-      <c r="B17" s="68" t="n"/>
-      <c r="C17" s="68" t="n"/>
-      <c r="D17" s="68" t="n"/>
-      <c r="E17" s="68" t="n"/>
-      <c r="F17" s="68" t="n"/>
-      <c r="G17" s="68" t="n"/>
-      <c r="H17" s="68" t="n"/>
+      <c r="B17" s="71" t="n"/>
+      <c r="C17" s="71" t="n"/>
+      <c r="D17" s="71" t="n"/>
+      <c r="E17" s="71" t="n"/>
+      <c r="F17" s="71" t="n"/>
+      <c r="G17" s="71" t="n"/>
+      <c r="H17" s="71" t="n"/>
       <c r="I17" s="5">
         <f>SUM(B17:H17)</f>
         <v/>
@@ -1217,13 +1223,13 @@
     </row>
     <row r="18">
       <c r="A18" s="17" t="n"/>
-      <c r="B18" s="68" t="n"/>
-      <c r="C18" s="68" t="n"/>
-      <c r="D18" s="68" t="n"/>
-      <c r="E18" s="68" t="n"/>
-      <c r="F18" s="68" t="n"/>
-      <c r="G18" s="68" t="n"/>
-      <c r="H18" s="68" t="n"/>
+      <c r="B18" s="71" t="n"/>
+      <c r="C18" s="71" t="n"/>
+      <c r="D18" s="71" t="n"/>
+      <c r="E18" s="71" t="n"/>
+      <c r="F18" s="71" t="n"/>
+      <c r="G18" s="71" t="n"/>
+      <c r="H18" s="71" t="n"/>
       <c r="I18" s="5">
         <f>SUM(B18:H18)</f>
         <v/>
@@ -1231,13 +1237,13 @@
     </row>
     <row r="19">
       <c r="A19" s="17" t="n"/>
-      <c r="B19" s="68" t="n"/>
-      <c r="C19" s="68" t="n"/>
-      <c r="D19" s="68" t="n"/>
-      <c r="E19" s="68" t="n"/>
-      <c r="F19" s="68" t="n"/>
-      <c r="G19" s="68" t="n"/>
-      <c r="H19" s="68" t="n"/>
+      <c r="B19" s="71" t="n"/>
+      <c r="C19" s="71" t="n"/>
+      <c r="D19" s="71" t="n"/>
+      <c r="E19" s="71" t="n"/>
+      <c r="F19" s="71" t="n"/>
+      <c r="G19" s="71" t="n"/>
+      <c r="H19" s="71" t="n"/>
       <c r="I19" s="5">
         <f>SUM(B19:H19)</f>
         <v/>
@@ -1245,13 +1251,13 @@
     </row>
     <row r="20">
       <c r="A20" s="17" t="n"/>
-      <c r="B20" s="68" t="n"/>
-      <c r="C20" s="68" t="n"/>
-      <c r="D20" s="68" t="n"/>
-      <c r="E20" s="68" t="n"/>
-      <c r="F20" s="68" t="n"/>
-      <c r="G20" s="68" t="n"/>
-      <c r="H20" s="68" t="n"/>
+      <c r="B20" s="71" t="n"/>
+      <c r="C20" s="71" t="n"/>
+      <c r="D20" s="71" t="n"/>
+      <c r="E20" s="71" t="n"/>
+      <c r="F20" s="71" t="n"/>
+      <c r="G20" s="71" t="n"/>
+      <c r="H20" s="71" t="n"/>
       <c r="I20" s="5">
         <f>SUM(B20:H20)</f>
         <v/>
@@ -1259,13 +1265,13 @@
     </row>
     <row r="21">
       <c r="A21" s="17" t="n"/>
-      <c r="B21" s="68" t="n"/>
-      <c r="C21" s="68" t="n"/>
-      <c r="D21" s="68" t="n"/>
-      <c r="E21" s="68" t="n"/>
-      <c r="F21" s="68" t="n"/>
-      <c r="G21" s="68" t="n"/>
-      <c r="H21" s="68" t="n"/>
+      <c r="B21" s="71" t="n"/>
+      <c r="C21" s="71" t="n"/>
+      <c r="D21" s="71" t="n"/>
+      <c r="E21" s="71" t="n"/>
+      <c r="F21" s="71" t="n"/>
+      <c r="G21" s="71" t="n"/>
+      <c r="H21" s="71" t="n"/>
       <c r="I21" s="5">
         <f>SUM(B21:H21)</f>
         <v/>
@@ -1273,13 +1279,13 @@
     </row>
     <row r="22">
       <c r="A22" s="17" t="n"/>
-      <c r="B22" s="68" t="n"/>
-      <c r="C22" s="68" t="n"/>
-      <c r="D22" s="68" t="n"/>
-      <c r="E22" s="68" t="n"/>
-      <c r="F22" s="68" t="n"/>
-      <c r="G22" s="68" t="n"/>
-      <c r="H22" s="68" t="n"/>
+      <c r="B22" s="71" t="n"/>
+      <c r="C22" s="71" t="n"/>
+      <c r="D22" s="71" t="n"/>
+      <c r="E22" s="71" t="n"/>
+      <c r="F22" s="71" t="n"/>
+      <c r="G22" s="71" t="n"/>
+      <c r="H22" s="71" t="n"/>
       <c r="I22" s="5">
         <f>SUM(B22:H22)</f>
         <v/>
@@ -1316,7 +1322,7 @@
       <c r="D25" s="9" t="n">
         <v>13</v>
       </c>
-      <c r="F25" s="66" t="inlineStr">
+      <c r="F25" s="69" t="inlineStr">
         <is>
           <t>HODINY PROSÍM VYPLŇOVAT V ČISTÉM ČASE, BEZ PŘESTÁVEK.</t>
         </is>
@@ -1325,8 +1331,8 @@
     </row>
     <row r="26">
       <c r="A26" s="17" t="n"/>
-      <c r="C26" s="68" t="n"/>
-      <c r="D26" s="68" t="n"/>
+      <c r="C26" s="71" t="n"/>
+      <c r="D26" s="71" t="n"/>
       <c r="F26" s="4" t="n"/>
       <c r="G26" s="4" t="n"/>
       <c r="H26" s="4" t="n"/>
@@ -1337,9 +1343,9 @@
     </row>
     <row r="27">
       <c r="A27" s="17" t="n"/>
-      <c r="C27" s="68" t="n"/>
-      <c r="D27" s="68" t="n"/>
-      <c r="F27" s="69" t="inlineStr">
+      <c r="C27" s="71" t="n"/>
+      <c r="D27" s="71" t="n"/>
+      <c r="F27" s="72" t="inlineStr">
         <is>
           <t>PŘESTÁVKA JE VŽDY 1 HODINA.</t>
         </is>
@@ -1347,26 +1353,26 @@
     </row>
     <row r="28">
       <c r="A28" s="17" t="n"/>
-      <c r="C28" s="68" t="n"/>
-      <c r="D28" s="68" t="n"/>
+      <c r="C28" s="71" t="n"/>
+      <c r="D28" s="71" t="n"/>
     </row>
     <row r="29">
-      <c r="F29" s="66" t="inlineStr">
+      <c r="F29" s="69" t="inlineStr">
         <is>
           <t>HODINY PROSÍM POSÍLAT TÝDNĚ NA EMAIL: hodiny@czechmontage.cz</t>
         </is>
       </c>
     </row>
-    <row r="30" ht="31.5" customHeight="1" s="67">
-      <c r="A30" s="60" t="inlineStr">
+    <row r="30" ht="31.5" customHeight="1" s="70">
+      <c r="A30" s="63" t="inlineStr">
         <is>
           <t>Přejezdy z projektu na projekt - pouze pracovní cesty z jednoho projektu na druhý!</t>
         </is>
       </c>
-      <c r="B30" s="61" t="n"/>
-      <c r="C30" s="61" t="n"/>
-      <c r="D30" s="61" t="n"/>
-      <c r="E30" s="62" t="n"/>
+      <c r="B30" s="64" t="n"/>
+      <c r="C30" s="64" t="n"/>
+      <c r="D30" s="64" t="n"/>
+      <c r="E30" s="65" t="n"/>
     </row>
     <row r="31">
       <c r="A31" s="2" t="inlineStr">
@@ -1422,17 +1428,17 @@
     </row>
     <row r="33">
       <c r="A33" s="17" t="n"/>
-      <c r="B33" s="68" t="n"/>
-      <c r="C33" s="68" t="n"/>
-      <c r="D33" s="68" t="n"/>
-      <c r="E33" s="68" t="n"/>
+      <c r="B33" s="71" t="n"/>
+      <c r="C33" s="71" t="n"/>
+      <c r="D33" s="71" t="n"/>
+      <c r="E33" s="71" t="n"/>
     </row>
     <row r="34">
       <c r="A34" s="17" t="n"/>
-      <c r="B34" s="68" t="n"/>
-      <c r="C34" s="68" t="n"/>
-      <c r="D34" s="68" t="n"/>
-      <c r="E34" s="68" t="n"/>
+      <c r="B34" s="71" t="n"/>
+      <c r="C34" s="71" t="n"/>
+      <c r="D34" s="71" t="n"/>
+      <c r="E34" s="71" t="n"/>
     </row>
     <row r="35">
       <c r="B35" s="24" t="n"/>
@@ -1462,96 +1468,96 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P35"/>
+  <dimension ref="A1:Z80"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="G21" sqref="G21"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="Z9" sqref="Z9:Z11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="8.5703125" defaultRowHeight="15"/>
   <cols>
-    <col width="28.515625" customWidth="1" style="67" min="1" max="1"/>
-    <col width="13.1796875" customWidth="1" style="67" min="2" max="2"/>
-    <col width="10.4921875" customWidth="1" style="67" min="3" max="7"/>
-    <col width="8.609375" customWidth="1" style="67" min="8" max="8"/>
-    <col width="13.1796875" customWidth="1" style="67" min="9" max="9"/>
-    <col width="8.609375" customWidth="1" style="67" min="10" max="94"/>
-    <col width="8.609375" customWidth="1" style="67" min="95" max="16384"/>
+    <col width="28.5703125" customWidth="1" style="70" min="1" max="1"/>
+    <col width="13.140625" customWidth="1" style="70" min="2" max="2"/>
+    <col width="10.42578125" customWidth="1" style="70" min="3" max="7"/>
+    <col width="8.5703125" customWidth="1" style="70" min="8" max="8"/>
+    <col width="13.140625" customWidth="1" style="70" min="9" max="9"/>
+    <col width="8.5703125" customWidth="1" style="70" min="10" max="24"/>
+    <col width="5" customWidth="1" style="70" min="25" max="25"/>
+    <col width="9.28515625" customWidth="1" style="70" min="26" max="26"/>
+    <col width="8.5703125" customWidth="1" style="70" min="27" max="95"/>
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="71" t="n"/>
+      <c r="A1" s="74" t="n"/>
     </row>
     <row r="2"/>
     <row r="3">
-      <c r="B3" s="68" t="inlineStr">
+      <c r="B3" s="71" t="inlineStr">
         <is>
           <t>Zálohy 18.09.2024-xx.xx.2024</t>
         </is>
       </c>
-      <c r="C3" s="62" t="n"/>
+      <c r="C3" s="65" t="n"/>
     </row>
     <row r="4">
-      <c r="B4" s="68" t="inlineStr">
+      <c r="B4" s="71" t="inlineStr">
         <is>
           <t>NÁZEV PROJEKTU : Ardo</t>
         </is>
       </c>
-      <c r="C4" s="61" t="n"/>
-      <c r="D4" s="61" t="n"/>
-      <c r="E4" s="61" t="n"/>
-      <c r="F4" s="61" t="n"/>
-      <c r="G4" s="61" t="n"/>
-      <c r="H4" s="61" t="n"/>
-      <c r="I4" s="61" t="n"/>
-      <c r="J4" s="61" t="n"/>
-      <c r="K4" s="61" t="n"/>
-      <c r="L4" s="61" t="n"/>
-      <c r="M4" s="61" t="n"/>
-      <c r="N4" s="61" t="n"/>
-      <c r="O4" s="61" t="n"/>
-      <c r="P4" s="62" t="n"/>
+      <c r="C4" s="64" t="n"/>
+      <c r="D4" s="64" t="n"/>
+      <c r="E4" s="64" t="n"/>
+      <c r="F4" s="64" t="n"/>
+      <c r="G4" s="64" t="n"/>
+      <c r="H4" s="64" t="n"/>
+      <c r="I4" s="64" t="n"/>
+      <c r="J4" s="64" t="n"/>
+      <c r="K4" s="64" t="n"/>
+      <c r="L4" s="64" t="n"/>
+      <c r="M4" s="64" t="n"/>
+      <c r="N4" s="64" t="n"/>
+      <c r="O4" s="64" t="n"/>
+      <c r="P4" s="65" t="n"/>
     </row>
     <row r="5">
-      <c r="A5" s="71" t="n"/>
+      <c r="A5" s="74" t="n"/>
       <c r="B5" s="35" t="n"/>
       <c r="C5" s="27" t="n"/>
-      <c r="D5" s="77" t="n"/>
-      <c r="E5" s="77" t="n"/>
-      <c r="F5" s="77" t="n"/>
-      <c r="G5" s="77" t="n"/>
-      <c r="H5" s="77" t="n"/>
-      <c r="I5" s="63" t="inlineStr">
+      <c r="D5" s="84" t="n"/>
+      <c r="E5" s="84" t="n"/>
+      <c r="F5" s="84" t="n"/>
+      <c r="G5" s="84" t="n"/>
+      <c r="H5" s="84" t="n"/>
+      <c r="I5" s="66" t="inlineStr">
         <is>
           <t>€ CELKEM €</t>
         </is>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="70" t="inlineStr">
+    <row r="6" ht="15.75" customHeight="1" s="70">
+      <c r="A6" s="73" t="inlineStr">
         <is>
           <t>Jméno pracovníka:</t>
         </is>
       </c>
-      <c r="B6" s="72" t="inlineStr">
-        <is>
-          <t>Září</t>
-        </is>
-      </c>
-      <c r="C6" s="62" t="n"/>
-      <c r="D6" s="72" t="inlineStr">
-        <is>
-          <t>Říjen</t>
-        </is>
-      </c>
-      <c r="E6" s="62" t="n"/>
+      <c r="B6" s="75">
+        <f>B80</f>
+        <v/>
+      </c>
+      <c r="C6" s="65" t="n"/>
+      <c r="D6" s="75">
+        <f>D80</f>
+        <v/>
+      </c>
+      <c r="E6" s="65" t="n"/>
       <c r="F6" s="28" t="n"/>
       <c r="G6" s="28" t="n"/>
       <c r="H6" s="28" t="n"/>
-      <c r="I6" s="64" t="n"/>
+      <c r="I6" s="67" t="n"/>
     </row>
     <row r="7">
-      <c r="A7" s="71" t="n"/>
+      <c r="A7" s="74" t="n"/>
       <c r="B7" s="14" t="inlineStr">
         <is>
           <t>Eura</t>
@@ -1575,7 +1581,7 @@
       <c r="F7" s="14" t="n"/>
       <c r="G7" s="14" t="n"/>
       <c r="H7" s="14" t="n"/>
-      <c r="I7" s="65" t="n"/>
+      <c r="I7" s="68" t="n"/>
     </row>
     <row r="8">
       <c r="A8" s="15" t="inlineStr">
@@ -1589,9 +1595,9 @@
       <c r="C8" s="31" t="n"/>
       <c r="D8" s="32" t="n"/>
       <c r="E8" s="33" t="n"/>
-      <c r="F8" s="68" t="n"/>
-      <c r="G8" s="68" t="n"/>
-      <c r="H8" s="68" t="n"/>
+      <c r="F8" s="71" t="n"/>
+      <c r="G8" s="71" t="n"/>
+      <c r="H8" s="71" t="n"/>
       <c r="I8" s="47">
         <f>SUM(B8+D8)</f>
         <v/>
@@ -1600,22 +1606,25 @@
     <row r="9">
       <c r="A9" s="15" t="inlineStr">
         <is>
-          <t>Vanoš Milan</t>
+          <t>Voneš Milan</t>
         </is>
       </c>
       <c r="B9" s="30" t="n">
         <v>140</v>
       </c>
-      <c r="C9" s="31" t="n"/>
+      <c r="C9" s="59" t="n"/>
       <c r="D9" s="32" t="n"/>
       <c r="E9" s="33" t="n"/>
-      <c r="F9" s="68" t="n"/>
-      <c r="G9" s="68" t="n"/>
-      <c r="H9" s="68" t="n"/>
+      <c r="F9" s="71" t="n"/>
+      <c r="G9" s="71" t="n"/>
+      <c r="H9" s="71" t="n"/>
       <c r="I9" s="47">
         <f>SUM(B9+D9)</f>
         <v/>
       </c>
+      <c r="Z9" s="62" t="n">
+        <v>45556</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="15" t="inlineStr">
@@ -1628,14 +1637,17 @@
       </c>
       <c r="C10" s="31" t="n"/>
       <c r="D10" s="32" t="n"/>
-      <c r="E10" s="34" t="n"/>
-      <c r="F10" s="68" t="n"/>
-      <c r="G10" s="68" t="n"/>
-      <c r="H10" s="68" t="n"/>
+      <c r="E10" s="60" t="n"/>
+      <c r="F10" s="71" t="n"/>
+      <c r="G10" s="71" t="n"/>
+      <c r="H10" s="71" t="n"/>
       <c r="I10" s="47">
         <f>SUM(B10+D10)</f>
         <v/>
       </c>
+      <c r="Z10" s="62" t="n">
+        <v>45556</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="19" t="inlineStr">
@@ -1644,50 +1656,56 @@
         </is>
       </c>
       <c r="B11" s="50" t="n"/>
-      <c r="C11" s="89" t="n"/>
-      <c r="D11" s="32" t="n"/>
+      <c r="C11" s="61" t="n"/>
+      <c r="D11" s="32" t="n">
+        <v>140</v>
+      </c>
       <c r="E11" s="34" t="n"/>
-      <c r="F11" s="68" t="n"/>
-      <c r="G11" s="68" t="n"/>
-      <c r="H11" s="68" t="n"/>
+      <c r="F11" s="71" t="n"/>
+      <c r="G11" s="71" t="n"/>
+      <c r="H11" s="71" t="n"/>
       <c r="I11" s="47">
         <f>SUM(B11+D11)</f>
         <v/>
       </c>
+      <c r="Z11" s="91" t="n">
+        <v>45570</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="15" t="inlineStr">
         <is>
-          <t>Forster Michael Joseph</t>
-        </is>
-      </c>
-      <c r="B12" s="50" t="n"/>
-      <c r="C12" s="68" t="n"/>
-      <c r="D12" s="32" t="n"/>
-      <c r="E12" s="34" t="n"/>
-      <c r="F12" s="68" t="n"/>
-      <c r="G12" s="68" t="n"/>
-      <c r="H12" s="68" t="n"/>
+          <t>Schmoranzer Martin</t>
+        </is>
+      </c>
+      <c r="B12" s="50" t="n">
+        <v>100</v>
+      </c>
+      <c r="C12" s="71" t="n"/>
+      <c r="D12" s="32" t="n">
+        <v>100</v>
+      </c>
+      <c r="E12" s="60" t="n"/>
+      <c r="F12" s="71" t="n"/>
+      <c r="G12" s="71" t="n"/>
+      <c r="H12" s="71" t="n"/>
       <c r="I12" s="47">
         <f>SUM(B12+D12)</f>
         <v/>
       </c>
+      <c r="Z12" s="91" t="n">
+        <v>45569</v>
+      </c>
     </row>
     <row r="13">
-      <c r="A13" s="15" t="inlineStr">
-        <is>
-          <t>Schmoranzer Martin</t>
-        </is>
-      </c>
-      <c r="B13" s="50" t="n">
-        <v>100</v>
-      </c>
-      <c r="C13" s="68" t="n"/>
+      <c r="A13" s="15" t="n"/>
+      <c r="B13" s="50" t="n"/>
+      <c r="C13" s="71" t="n"/>
       <c r="D13" s="32" t="n"/>
       <c r="E13" s="34" t="n"/>
-      <c r="F13" s="68" t="n"/>
-      <c r="G13" s="68" t="n"/>
-      <c r="H13" s="68" t="n"/>
+      <c r="F13" s="71" t="n"/>
+      <c r="G13" s="71" t="n"/>
+      <c r="H13" s="71" t="n"/>
       <c r="I13" s="47">
         <f>SUM(B13+D13)</f>
         <v/>
@@ -1696,103 +1714,100 @@
     <row r="14">
       <c r="A14" s="15" t="n"/>
       <c r="B14" s="50" t="n"/>
-      <c r="C14" s="68" t="n"/>
+      <c r="C14" s="71" t="n"/>
       <c r="D14" s="32" t="n"/>
       <c r="E14" s="33" t="n"/>
-      <c r="F14" s="68" t="n"/>
-      <c r="G14" s="68" t="n"/>
-      <c r="H14" s="68" t="n"/>
-      <c r="I14" s="47">
-        <f>SUM(B14+D14)</f>
-        <v/>
-      </c>
+      <c r="F14" s="71" t="n"/>
+      <c r="G14" s="71" t="n"/>
+      <c r="H14" s="71" t="n"/>
+      <c r="I14" s="47" t="n"/>
     </row>
     <row r="15">
       <c r="A15" s="15" t="n"/>
       <c r="B15" s="50" t="n"/>
-      <c r="C15" s="68" t="n"/>
+      <c r="C15" s="71" t="n"/>
       <c r="D15" s="32" t="n"/>
       <c r="E15" s="33" t="n"/>
-      <c r="F15" s="68" t="n"/>
-      <c r="G15" s="68" t="n"/>
-      <c r="H15" s="68" t="n"/>
+      <c r="F15" s="71" t="n"/>
+      <c r="G15" s="71" t="n"/>
+      <c r="H15" s="71" t="n"/>
       <c r="I15" s="47" t="n"/>
     </row>
     <row r="16">
       <c r="A16" s="15" t="n"/>
       <c r="B16" s="50" t="n"/>
-      <c r="C16" s="68" t="n"/>
+      <c r="C16" s="71" t="n"/>
       <c r="D16" s="32" t="n"/>
       <c r="E16" s="33" t="n"/>
-      <c r="F16" s="68" t="n"/>
-      <c r="G16" s="68" t="n"/>
-      <c r="H16" s="68" t="n"/>
+      <c r="F16" s="71" t="n"/>
+      <c r="G16" s="71" t="n"/>
+      <c r="H16" s="71" t="n"/>
       <c r="I16" s="47" t="n"/>
     </row>
     <row r="17">
       <c r="A17" s="15" t="n"/>
       <c r="B17" s="50" t="n"/>
-      <c r="C17" s="68" t="n"/>
+      <c r="C17" s="71" t="n"/>
       <c r="D17" s="32" t="n"/>
       <c r="E17" s="33" t="n"/>
-      <c r="F17" s="68" t="n"/>
-      <c r="G17" s="68" t="n"/>
-      <c r="H17" s="68" t="n"/>
+      <c r="F17" s="71" t="n"/>
+      <c r="G17" s="71" t="n"/>
+      <c r="H17" s="71" t="n"/>
       <c r="I17" s="47" t="n"/>
     </row>
     <row r="18">
       <c r="A18" s="15" t="n"/>
       <c r="B18" s="50" t="n"/>
-      <c r="C18" s="68" t="n"/>
+      <c r="C18" s="71" t="n"/>
       <c r="D18" s="32" t="n"/>
       <c r="E18" s="33" t="n"/>
-      <c r="F18" s="68" t="n"/>
-      <c r="G18" s="68" t="n"/>
-      <c r="H18" s="68" t="n"/>
+      <c r="F18" s="71" t="n"/>
+      <c r="G18" s="71" t="n"/>
+      <c r="H18" s="71" t="n"/>
       <c r="I18" s="47" t="n"/>
     </row>
     <row r="19">
       <c r="A19" s="15" t="n"/>
       <c r="B19" s="50" t="n"/>
-      <c r="C19" s="68" t="n"/>
+      <c r="C19" s="71" t="n"/>
       <c r="D19" s="32" t="n"/>
       <c r="E19" s="33" t="n"/>
-      <c r="F19" s="68" t="n"/>
-      <c r="G19" s="68" t="n"/>
-      <c r="H19" s="68" t="n"/>
+      <c r="F19" s="71" t="n"/>
+      <c r="G19" s="71" t="n"/>
+      <c r="H19" s="71" t="n"/>
       <c r="I19" s="47" t="n"/>
     </row>
     <row r="20">
       <c r="A20" s="15" t="n"/>
       <c r="B20" s="50" t="n"/>
-      <c r="C20" s="68" t="n"/>
+      <c r="C20" s="71" t="n"/>
       <c r="D20" s="32" t="n"/>
       <c r="E20" s="33" t="n"/>
-      <c r="F20" s="68" t="n"/>
-      <c r="G20" s="68" t="n"/>
-      <c r="H20" s="68" t="n"/>
+      <c r="F20" s="71" t="n"/>
+      <c r="G20" s="71" t="n"/>
+      <c r="H20" s="71" t="n"/>
       <c r="I20" s="47" t="n"/>
     </row>
     <row r="21">
       <c r="A21" s="15" t="n"/>
       <c r="B21" s="50" t="n"/>
-      <c r="C21" s="68" t="n"/>
+      <c r="C21" s="71" t="n"/>
       <c r="D21" s="32" t="n"/>
       <c r="E21" s="33" t="n"/>
-      <c r="F21" s="68" t="n"/>
-      <c r="G21" s="68" t="n"/>
-      <c r="H21" s="68" t="n"/>
+      <c r="F21" s="71" t="n"/>
+      <c r="G21" s="71" t="n"/>
+      <c r="H21" s="71" t="n"/>
       <c r="I21" s="47" t="n"/>
     </row>
     <row r="22">
       <c r="A22" s="15" t="n"/>
       <c r="B22" s="50" t="n"/>
-      <c r="C22" s="68" t="n"/>
+      <c r="C22" s="71" t="n"/>
       <c r="D22" s="32" t="n"/>
       <c r="E22" s="33" t="n"/>
-      <c r="F22" s="68" t="n"/>
-      <c r="G22" s="68" t="n"/>
-      <c r="H22" s="68" t="n"/>
+      <c r="F22" s="71" t="n"/>
+      <c r="G22" s="71" t="n"/>
+      <c r="H22" s="71" t="n"/>
       <c r="I22" s="47" t="n"/>
     </row>
     <row r="23">
@@ -1812,12 +1827,12 @@
       <c r="A25" s="11" t="n"/>
       <c r="C25" s="13" t="n"/>
       <c r="D25" s="13" t="n"/>
-      <c r="F25" s="66" t="n"/>
+      <c r="F25" s="69" t="n"/>
     </row>
     <row r="26">
       <c r="A26" s="17" t="n"/>
-      <c r="C26" s="68" t="n"/>
-      <c r="D26" s="68" t="n"/>
+      <c r="C26" s="71" t="n"/>
+      <c r="D26" s="71" t="n"/>
       <c r="F26" s="4" t="n"/>
       <c r="G26" s="4" t="n"/>
       <c r="H26" s="4" t="n"/>
@@ -1827,23 +1842,23 @@
     </row>
     <row r="27">
       <c r="A27" s="17" t="n"/>
-      <c r="C27" s="68" t="n"/>
-      <c r="D27" s="68" t="n"/>
+      <c r="C27" s="71" t="n"/>
+      <c r="D27" s="71" t="n"/>
     </row>
     <row r="28">
       <c r="A28" s="17" t="n"/>
-      <c r="C28" s="68" t="n"/>
-      <c r="D28" s="68" t="n"/>
+      <c r="C28" s="71" t="n"/>
+      <c r="D28" s="71" t="n"/>
     </row>
     <row r="29">
-      <c r="F29" s="66" t="n"/>
+      <c r="F29" s="69" t="n"/>
     </row>
     <row r="30">
-      <c r="A30" s="60" t="n"/>
-      <c r="B30" s="61" t="n"/>
-      <c r="C30" s="61" t="n"/>
-      <c r="D30" s="61" t="n"/>
-      <c r="E30" s="62" t="n"/>
+      <c r="A30" s="63" t="n"/>
+      <c r="B30" s="64" t="n"/>
+      <c r="C30" s="64" t="n"/>
+      <c r="D30" s="64" t="n"/>
+      <c r="E30" s="65" t="n"/>
     </row>
     <row r="31">
       <c r="A31" s="2" t="n"/>
@@ -1861,22 +1876,34 @@
     </row>
     <row r="33">
       <c r="A33" s="17" t="n"/>
-      <c r="B33" s="68" t="n"/>
-      <c r="C33" s="68" t="n"/>
-      <c r="D33" s="68" t="n"/>
-      <c r="E33" s="68" t="n"/>
+      <c r="B33" s="71" t="n"/>
+      <c r="C33" s="71" t="n"/>
+      <c r="D33" s="71" t="n"/>
+      <c r="E33" s="71" t="n"/>
     </row>
     <row r="34">
       <c r="A34" s="17" t="n"/>
-      <c r="B34" s="68" t="n"/>
-      <c r="C34" s="68" t="n"/>
-      <c r="D34" s="68" t="n"/>
-      <c r="E34" s="68" t="n"/>
+      <c r="B34" s="71" t="n"/>
+      <c r="C34" s="71" t="n"/>
+      <c r="D34" s="71" t="n"/>
+      <c r="E34" s="71" t="n"/>
     </row>
     <row r="35">
       <c r="B35" s="24" t="n"/>
       <c r="C35" s="24" t="n"/>
       <c r="D35" s="24" t="n"/>
+    </row>
+    <row r="80">
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>Září</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>Říjen</t>
+        </is>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="10">
@@ -1903,106 +1930,105 @@
   </sheetPr>
   <dimension ref="A1:S80"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="D80" sqref="D80"/>
+    <sheetView topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="P16" sqref="P16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="8.5703125" defaultRowHeight="15"/>
   <cols>
-    <col width="28.515625" customWidth="1" style="67" min="1" max="1"/>
-    <col width="5.6484375" customWidth="1" style="67" min="2" max="14"/>
-    <col width="5.6484375" customWidth="1" style="81" min="15" max="15"/>
-    <col width="13.1796875" customWidth="1" style="67" min="16" max="16"/>
-    <col width="8.609375" customWidth="1" style="67" min="17" max="101"/>
-    <col width="8.609375" customWidth="1" style="67" min="102" max="16384"/>
+    <col width="28.5703125" customWidth="1" style="70" min="1" max="1"/>
+    <col width="5.7109375" customWidth="1" style="70" min="2" max="14"/>
+    <col width="5.7109375" customWidth="1" style="87" min="15" max="15"/>
+    <col width="13.140625" customWidth="1" style="70" min="16" max="16"/>
+    <col width="8.5703125" customWidth="1" style="70" min="17" max="102"/>
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="71" t="n"/>
+      <c r="A1" s="74" t="n"/>
     </row>
     <row r="2"/>
     <row r="3">
-      <c r="B3" s="85">
+      <c r="B3" s="81">
         <f>A80</f>
         <v/>
       </c>
-      <c r="C3" s="61" t="n"/>
-      <c r="D3" s="62" t="n"/>
+      <c r="C3" s="64" t="n"/>
+      <c r="D3" s="65" t="n"/>
       <c r="E3" s="24" t="n"/>
     </row>
     <row r="4">
-      <c r="B4" s="68" t="inlineStr">
+      <c r="B4" s="71" t="inlineStr">
         <is>
           <t>NÁZEV PROJEKTU : Ardo</t>
         </is>
       </c>
-      <c r="C4" s="61" t="n"/>
-      <c r="D4" s="61" t="n"/>
-      <c r="E4" s="61" t="n"/>
-      <c r="F4" s="61" t="n"/>
-      <c r="G4" s="61" t="n"/>
-      <c r="H4" s="61" t="n"/>
-      <c r="I4" s="61" t="n"/>
-      <c r="J4" s="61" t="n"/>
-      <c r="K4" s="61" t="n"/>
-      <c r="L4" s="61" t="n"/>
-      <c r="M4" s="61" t="n"/>
-      <c r="N4" s="61" t="n"/>
-      <c r="O4" s="61" t="n"/>
-      <c r="P4" s="62" t="n"/>
+      <c r="C4" s="64" t="n"/>
+      <c r="D4" s="64" t="n"/>
+      <c r="E4" s="64" t="n"/>
+      <c r="F4" s="64" t="n"/>
+      <c r="G4" s="64" t="n"/>
+      <c r="H4" s="64" t="n"/>
+      <c r="I4" s="64" t="n"/>
+      <c r="J4" s="64" t="n"/>
+      <c r="K4" s="64" t="n"/>
+      <c r="L4" s="64" t="n"/>
+      <c r="M4" s="64" t="n"/>
+      <c r="N4" s="64" t="n"/>
+      <c r="O4" s="64" t="n"/>
+      <c r="P4" s="65" t="n"/>
     </row>
     <row r="5">
-      <c r="A5" s="71" t="n"/>
-      <c r="B5" s="87" t="inlineStr">
+      <c r="A5" s="74" t="n"/>
+      <c r="B5" s="83" t="inlineStr">
         <is>
           <t>Pondělí</t>
         </is>
       </c>
-      <c r="C5" s="62" t="n"/>
-      <c r="D5" s="77" t="inlineStr">
+      <c r="C5" s="65" t="n"/>
+      <c r="D5" s="84" t="inlineStr">
         <is>
           <t>Úterý</t>
         </is>
       </c>
-      <c r="E5" s="62" t="n"/>
-      <c r="F5" s="77" t="inlineStr">
+      <c r="E5" s="65" t="n"/>
+      <c r="F5" s="84" t="inlineStr">
         <is>
           <t>Středa</t>
         </is>
       </c>
-      <c r="G5" s="62" t="n"/>
-      <c r="H5" s="77" t="inlineStr">
+      <c r="G5" s="65" t="n"/>
+      <c r="H5" s="84" t="inlineStr">
         <is>
           <t>Čtvrtek</t>
         </is>
       </c>
-      <c r="I5" s="62" t="n"/>
-      <c r="J5" s="77" t="inlineStr">
+      <c r="I5" s="65" t="n"/>
+      <c r="J5" s="84" t="inlineStr">
         <is>
           <t>Pátek</t>
         </is>
       </c>
-      <c r="K5" s="62" t="n"/>
-      <c r="L5" s="77" t="inlineStr">
+      <c r="K5" s="65" t="n"/>
+      <c r="L5" s="84" t="inlineStr">
         <is>
           <t>Sobota</t>
         </is>
       </c>
-      <c r="M5" s="62" t="n"/>
-      <c r="N5" s="82" t="inlineStr">
+      <c r="M5" s="65" t="n"/>
+      <c r="N5" s="86" t="inlineStr">
         <is>
           <t>Neděle</t>
         </is>
       </c>
-      <c r="O5" s="62" t="n"/>
-      <c r="P5" s="63" t="inlineStr">
+      <c r="O5" s="65" t="n"/>
+      <c r="P5" s="66" t="inlineStr">
         <is>
           <t>HODINY CELKEM</t>
         </is>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="70" t="inlineStr">
+    <row r="6" ht="15.75" customHeight="1" s="70">
+      <c r="A6" s="73" t="inlineStr">
         <is>
           <t>Jméno pracovníka:</t>
         </is>
@@ -2037,30 +2063,30 @@
         <v/>
       </c>
       <c r="M6" s="80" t="n"/>
-      <c r="N6" s="86">
+      <c r="N6" s="82">
         <f>N80</f>
         <v/>
       </c>
       <c r="O6" s="80" t="n"/>
-      <c r="P6" s="64" t="n"/>
+      <c r="P6" s="67" t="n"/>
     </row>
     <row r="7">
-      <c r="A7" s="71" t="n"/>
+      <c r="A7" s="74" t="n"/>
       <c r="B7" s="41" t="n"/>
       <c r="C7" s="41" t="n"/>
-      <c r="D7" s="73" t="n"/>
-      <c r="E7" s="73" t="n"/>
-      <c r="F7" s="73" t="n"/>
-      <c r="G7" s="73" t="n"/>
-      <c r="H7" s="73" t="n"/>
-      <c r="I7" s="73" t="n"/>
-      <c r="J7" s="73" t="n"/>
-      <c r="K7" s="73" t="n"/>
+      <c r="D7" s="89" t="n"/>
+      <c r="E7" s="89" t="n"/>
+      <c r="F7" s="89" t="n"/>
+      <c r="G7" s="89" t="n"/>
+      <c r="H7" s="89" t="n"/>
+      <c r="I7" s="89" t="n"/>
+      <c r="J7" s="89" t="n"/>
+      <c r="K7" s="89" t="n"/>
       <c r="L7" s="41" t="n"/>
       <c r="M7" s="41" t="n"/>
-      <c r="N7" s="73" t="n"/>
+      <c r="N7" s="89" t="n"/>
       <c r="O7" s="42" t="n"/>
-      <c r="P7" s="65" t="n"/>
+      <c r="P7" s="68" t="n"/>
     </row>
     <row r="8">
       <c r="A8" s="37" t="inlineStr">
@@ -2069,19 +2095,19 @@
         </is>
       </c>
       <c r="B8" s="76" t="n"/>
-      <c r="C8" s="74" t="n"/>
+      <c r="C8" s="77" t="n"/>
       <c r="D8" s="76" t="n"/>
-      <c r="E8" s="74" t="n"/>
-      <c r="F8" s="83" t="n"/>
-      <c r="G8" s="74" t="n"/>
-      <c r="H8" s="83" t="n"/>
-      <c r="I8" s="74" t="n"/>
-      <c r="J8" s="83" t="n"/>
-      <c r="K8" s="74" t="n"/>
-      <c r="L8" s="83" t="n"/>
-      <c r="M8" s="74" t="n"/>
-      <c r="N8" s="84" t="n"/>
-      <c r="O8" s="74" t="n"/>
+      <c r="E8" s="77" t="n"/>
+      <c r="F8" s="85" t="n"/>
+      <c r="G8" s="77" t="n"/>
+      <c r="H8" s="85" t="n"/>
+      <c r="I8" s="77" t="n"/>
+      <c r="J8" s="85" t="n"/>
+      <c r="K8" s="77" t="n"/>
+      <c r="L8" s="85" t="n"/>
+      <c r="M8" s="77" t="n"/>
+      <c r="N8" s="78" t="n"/>
+      <c r="O8" s="77" t="n"/>
       <c r="P8" s="39">
         <f>SUM(B8:N8)</f>
         <v/>
@@ -2090,19 +2116,19 @@
     <row r="9">
       <c r="A9" s="37" t="n"/>
       <c r="B9" s="76" t="n"/>
-      <c r="C9" s="74" t="n"/>
+      <c r="C9" s="77" t="n"/>
       <c r="D9" s="76" t="n"/>
-      <c r="E9" s="74" t="n"/>
+      <c r="E9" s="77" t="n"/>
       <c r="F9" s="76" t="n"/>
-      <c r="G9" s="74" t="n"/>
+      <c r="G9" s="77" t="n"/>
       <c r="H9" s="76" t="n"/>
-      <c r="I9" s="74" t="n"/>
+      <c r="I9" s="77" t="n"/>
       <c r="J9" s="76" t="n"/>
-      <c r="K9" s="74" t="n"/>
+      <c r="K9" s="77" t="n"/>
       <c r="L9" s="76" t="n"/>
-      <c r="M9" s="74" t="n"/>
-      <c r="N9" s="84" t="n"/>
-      <c r="O9" s="74" t="n"/>
+      <c r="M9" s="77" t="n"/>
+      <c r="N9" s="78" t="n"/>
+      <c r="O9" s="77" t="n"/>
       <c r="P9" s="39">
         <f>SUM(B9:N9)</f>
         <v/>
@@ -2111,19 +2137,19 @@
     <row r="10">
       <c r="A10" s="44" t="n"/>
       <c r="B10" s="76" t="n"/>
-      <c r="C10" s="74" t="n"/>
+      <c r="C10" s="77" t="n"/>
       <c r="D10" s="76" t="n"/>
-      <c r="E10" s="74" t="n"/>
+      <c r="E10" s="77" t="n"/>
       <c r="F10" s="76" t="n"/>
-      <c r="G10" s="74" t="n"/>
-      <c r="H10" s="78" t="n"/>
-      <c r="I10" s="74" t="n"/>
+      <c r="G10" s="77" t="n"/>
+      <c r="H10" s="88" t="n"/>
+      <c r="I10" s="77" t="n"/>
       <c r="J10" s="76" t="n"/>
-      <c r="K10" s="74" t="n"/>
+      <c r="K10" s="77" t="n"/>
       <c r="L10" s="76" t="n"/>
-      <c r="M10" s="74" t="n"/>
+      <c r="M10" s="77" t="n"/>
       <c r="N10" s="76" t="n"/>
-      <c r="O10" s="74" t="n"/>
+      <c r="O10" s="77" t="n"/>
       <c r="P10" s="39">
         <f>SUM(B10:O10)</f>
         <v/>
@@ -2132,19 +2158,19 @@
     <row r="11">
       <c r="A11" s="20" t="n"/>
       <c r="B11" s="76" t="n"/>
-      <c r="C11" s="74" t="n"/>
+      <c r="C11" s="77" t="n"/>
       <c r="D11" s="76" t="n"/>
-      <c r="E11" s="74" t="n"/>
-      <c r="F11" s="73" t="n"/>
-      <c r="G11" s="74" t="n"/>
-      <c r="H11" s="78" t="n"/>
-      <c r="I11" s="74" t="n"/>
+      <c r="E11" s="77" t="n"/>
+      <c r="F11" s="89" t="n"/>
+      <c r="G11" s="77" t="n"/>
+      <c r="H11" s="88" t="n"/>
+      <c r="I11" s="77" t="n"/>
       <c r="J11" s="76" t="n"/>
-      <c r="K11" s="74" t="n"/>
+      <c r="K11" s="77" t="n"/>
       <c r="L11" s="76" t="n"/>
-      <c r="M11" s="74" t="n"/>
+      <c r="M11" s="77" t="n"/>
       <c r="N11" s="76" t="n"/>
-      <c r="O11" s="74" t="n"/>
+      <c r="O11" s="77" t="n"/>
       <c r="P11" s="39">
         <f>SUM(B11:O11)</f>
         <v/>
@@ -2153,19 +2179,19 @@
     <row r="12">
       <c r="A12" s="37" t="n"/>
       <c r="B12" s="76" t="n"/>
-      <c r="C12" s="74" t="n"/>
+      <c r="C12" s="77" t="n"/>
       <c r="D12" s="76" t="n"/>
-      <c r="E12" s="74" t="n"/>
-      <c r="F12" s="73" t="n"/>
-      <c r="G12" s="74" t="n"/>
-      <c r="H12" s="78" t="n"/>
-      <c r="I12" s="74" t="n"/>
+      <c r="E12" s="77" t="n"/>
+      <c r="F12" s="89" t="n"/>
+      <c r="G12" s="77" t="n"/>
+      <c r="H12" s="88" t="n"/>
+      <c r="I12" s="77" t="n"/>
       <c r="J12" s="76" t="n"/>
-      <c r="K12" s="74" t="n"/>
+      <c r="K12" s="77" t="n"/>
       <c r="L12" s="76" t="n"/>
-      <c r="M12" s="74" t="n"/>
+      <c r="M12" s="77" t="n"/>
       <c r="N12" s="76" t="n"/>
-      <c r="O12" s="74" t="n"/>
+      <c r="O12" s="77" t="n"/>
       <c r="P12" s="39">
         <f>SUM(B12:O12)</f>
         <v/>
@@ -2179,14 +2205,14 @@
       <c r="E13" s="76" t="n"/>
       <c r="F13" s="49" t="n"/>
       <c r="G13" s="49" t="n"/>
-      <c r="H13" s="78" t="n"/>
-      <c r="I13" s="78" t="n"/>
+      <c r="H13" s="88" t="n"/>
+      <c r="I13" s="88" t="n"/>
       <c r="J13" s="76" t="n"/>
       <c r="K13" s="76" t="n"/>
       <c r="L13" s="76" t="n"/>
       <c r="M13" s="76" t="n"/>
       <c r="N13" s="76" t="n"/>
-      <c r="O13" s="84" t="n"/>
+      <c r="O13" s="78" t="n"/>
       <c r="P13" s="39">
         <f>SUM(B13:O13)</f>
         <v/>
@@ -2207,7 +2233,7 @@
       <c r="L14" s="76" t="n"/>
       <c r="M14" s="76" t="n"/>
       <c r="N14" s="76" t="n"/>
-      <c r="O14" s="84" t="n"/>
+      <c r="O14" s="78" t="n"/>
       <c r="P14" s="39">
         <f>SUM(B14:O14)</f>
         <v/>
@@ -2228,9 +2254,9 @@
       <c r="L15" s="76" t="n"/>
       <c r="M15" s="76" t="n"/>
       <c r="N15" s="76" t="n"/>
-      <c r="O15" s="84" t="n"/>
+      <c r="O15" s="78" t="n"/>
       <c r="P15" s="39">
-        <f>SUM(H15:O15)</f>
+        <f>SUM(B15:O15)</f>
         <v/>
       </c>
     </row>
@@ -2249,7 +2275,7 @@
       <c r="L16" s="76" t="n"/>
       <c r="M16" s="76" t="n"/>
       <c r="N16" s="76" t="n"/>
-      <c r="O16" s="84" t="n"/>
+      <c r="O16" s="78" t="n"/>
       <c r="P16" s="39">
         <f>SUM(B16:O16)</f>
         <v/>
@@ -2270,7 +2296,7 @@
       <c r="L17" s="76" t="n"/>
       <c r="M17" s="76" t="n"/>
       <c r="N17" s="76" t="n"/>
-      <c r="O17" s="84" t="n"/>
+      <c r="O17" s="78" t="n"/>
       <c r="P17" s="39">
         <f>SUM(B17:O17)</f>
         <v/>
@@ -2291,7 +2317,7 @@
       <c r="L18" s="76" t="n"/>
       <c r="M18" s="76" t="n"/>
       <c r="N18" s="76" t="n"/>
-      <c r="O18" s="84" t="n"/>
+      <c r="O18" s="78" t="n"/>
       <c r="P18" s="39">
         <f>SUM(B18:O18)</f>
         <v/>
@@ -2312,7 +2338,7 @@
       <c r="L19" s="76" t="n"/>
       <c r="M19" s="76" t="n"/>
       <c r="N19" s="76" t="n"/>
-      <c r="O19" s="84" t="n"/>
+      <c r="O19" s="78" t="n"/>
       <c r="P19" s="39">
         <f>SUM(B19:O19)</f>
         <v/>
@@ -2333,7 +2359,7 @@
       <c r="L20" s="76" t="n"/>
       <c r="M20" s="76" t="n"/>
       <c r="N20" s="76" t="n"/>
-      <c r="O20" s="84" t="n"/>
+      <c r="O20" s="78" t="n"/>
       <c r="P20" s="39">
         <f>SUM(B20:O20)</f>
         <v/>
@@ -2354,7 +2380,7 @@
       <c r="L21" s="76" t="n"/>
       <c r="M21" s="76" t="n"/>
       <c r="N21" s="76" t="n"/>
-      <c r="O21" s="84" t="n"/>
+      <c r="O21" s="78" t="n"/>
       <c r="P21" s="39">
         <f>SUM(B21:O21)</f>
         <v/>
@@ -2375,7 +2401,7 @@
       <c r="L22" s="76" t="n"/>
       <c r="M22" s="76" t="n"/>
       <c r="N22" s="76" t="n"/>
-      <c r="O22" s="84" t="n"/>
+      <c r="O22" s="78" t="n"/>
       <c r="P22" s="39">
         <f>SUM(B22:O22)</f>
         <v/>
@@ -2414,7 +2440,7 @@
         <v>0.5208333333333334</v>
       </c>
       <c r="G25" s="22" t="n"/>
-      <c r="J25" s="66" t="inlineStr">
+      <c r="J25" s="69" t="inlineStr">
         <is>
           <t>HODINY PROSÍM VYPLŇOVAT V ČISTÉM ČASE, BEZ PŘESTÁVEK.</t>
         </is>
@@ -2422,9 +2448,9 @@
     </row>
     <row r="26">
       <c r="A26" s="17" t="n"/>
-      <c r="D26" s="68" t="n"/>
-      <c r="E26" s="68" t="n"/>
-      <c r="F26" s="68" t="n"/>
+      <c r="D26" s="71" t="n"/>
+      <c r="E26" s="71" t="n"/>
+      <c r="F26" s="71" t="n"/>
       <c r="G26" s="24" t="n"/>
       <c r="J26" s="4" t="n"/>
       <c r="K26" s="4" t="n"/>
@@ -2438,38 +2464,38 @@
     </row>
     <row r="27">
       <c r="A27" s="17" t="n"/>
-      <c r="D27" s="68" t="n"/>
-      <c r="E27" s="68" t="n"/>
-      <c r="F27" s="68" t="n"/>
+      <c r="D27" s="71" t="n"/>
+      <c r="E27" s="71" t="n"/>
+      <c r="F27" s="71" t="n"/>
       <c r="G27" s="24" t="n"/>
     </row>
     <row r="28">
       <c r="A28" s="17" t="n"/>
-      <c r="D28" s="68" t="n"/>
-      <c r="E28" s="68" t="n"/>
-      <c r="F28" s="68" t="n"/>
+      <c r="D28" s="71" t="n"/>
+      <c r="E28" s="71" t="n"/>
+      <c r="F28" s="71" t="n"/>
       <c r="G28" s="24" t="n"/>
     </row>
     <row r="29">
-      <c r="J29" s="66" t="inlineStr">
+      <c r="J29" s="69" t="inlineStr">
         <is>
           <t>HODINY PROSÍM POSÍLAT TÝDNĚ NA EMAIL: hodiny@czechmontage.cz</t>
         </is>
       </c>
     </row>
     <row r="30">
-      <c r="A30" s="75" t="inlineStr">
+      <c r="A30" s="90" t="inlineStr">
         <is>
           <t>Přejezdy z projektu na projekt - pouze pracovní cesty z jednoho projektu na druhý!</t>
         </is>
       </c>
-      <c r="B30" s="61" t="n"/>
-      <c r="C30" s="61" t="n"/>
-      <c r="D30" s="61" t="n"/>
-      <c r="E30" s="61" t="n"/>
-      <c r="F30" s="61" t="n"/>
-      <c r="G30" s="61" t="n"/>
-      <c r="H30" s="62" t="n"/>
+      <c r="B30" s="64" t="n"/>
+      <c r="C30" s="64" t="n"/>
+      <c r="D30" s="64" t="n"/>
+      <c r="E30" s="64" t="n"/>
+      <c r="F30" s="64" t="n"/>
+      <c r="G30" s="64" t="n"/>
+      <c r="H30" s="65" t="n"/>
       <c r="I30" s="23" t="n"/>
     </row>
     <row r="31">
@@ -2478,25 +2504,25 @@
           <t>Jméno pracovníka</t>
         </is>
       </c>
-      <c r="B31" s="68" t="inlineStr">
+      <c r="B31" s="71" t="inlineStr">
         <is>
           <t>Odkud</t>
         </is>
       </c>
-      <c r="C31" s="68" t="n"/>
-      <c r="D31" s="68" t="inlineStr">
+      <c r="C31" s="71" t="n"/>
+      <c r="D31" s="71" t="inlineStr">
         <is>
           <t xml:space="preserve">Kam </t>
         </is>
       </c>
-      <c r="E31" s="68" t="n"/>
-      <c r="F31" s="68" t="inlineStr">
+      <c r="E31" s="71" t="n"/>
+      <c r="F31" s="71" t="inlineStr">
         <is>
           <t xml:space="preserve">Kdy </t>
         </is>
       </c>
-      <c r="G31" s="68" t="n"/>
-      <c r="H31" s="68" t="inlineStr">
+      <c r="G31" s="71" t="n"/>
+      <c r="H31" s="71" t="inlineStr">
         <is>
           <t>Délka cesty</t>
         </is>
@@ -2517,7 +2543,7 @@
       <c r="E32" s="45" t="n"/>
       <c r="F32" s="46" t="n"/>
       <c r="G32" s="46" t="n"/>
-      <c r="H32" s="68" t="n"/>
+      <c r="H32" s="71" t="n"/>
       <c r="I32" s="24" t="n"/>
       <c r="J32" s="25" t="n"/>
       <c r="K32" s="25" t="n"/>
@@ -2530,7 +2556,7 @@
       <c r="E33" s="45" t="n"/>
       <c r="F33" s="46" t="n"/>
       <c r="G33" s="46" t="n"/>
-      <c r="H33" s="68" t="n"/>
+      <c r="H33" s="71" t="n"/>
       <c r="I33" s="24" t="n"/>
     </row>
     <row r="34">
@@ -2541,7 +2567,7 @@
       <c r="E34" s="18" t="n"/>
       <c r="F34" s="29" t="n"/>
       <c r="G34" s="29" t="n"/>
-      <c r="H34" s="68" t="n"/>
+      <c r="H34" s="71" t="n"/>
       <c r="I34" s="24" t="n"/>
     </row>
     <row r="35">
@@ -2558,19 +2584,19 @@
           <t>Týden</t>
         </is>
       </c>
-      <c r="B80" s="88" t="n"/>
-      <c r="C80" s="88" t="n"/>
-      <c r="D80" s="88" t="n"/>
-      <c r="E80" s="88" t="n"/>
-      <c r="F80" s="88" t="n"/>
-      <c r="G80" s="88" t="n"/>
-      <c r="H80" s="88" t="n"/>
-      <c r="I80" s="88" t="n"/>
-      <c r="J80" s="88" t="n"/>
-      <c r="K80" s="88" t="n"/>
-      <c r="L80" s="88" t="n"/>
-      <c r="M80" s="88" t="n"/>
-      <c r="N80" s="88" t="n"/>
+      <c r="B80" s="36" t="n"/>
+      <c r="C80" s="36" t="n"/>
+      <c r="D80" s="36" t="n"/>
+      <c r="E80" s="36" t="n"/>
+      <c r="F80" s="36" t="n"/>
+      <c r="G80" s="36" t="n"/>
+      <c r="H80" s="36" t="n"/>
+      <c r="I80" s="36" t="n"/>
+      <c r="J80" s="36" t="n"/>
+      <c r="K80" s="36" t="n"/>
+      <c r="L80" s="36" t="n"/>
+      <c r="M80" s="36" t="n"/>
+      <c r="N80" s="36" t="n"/>
     </row>
   </sheetData>
   <mergeCells count="57">
@@ -2601,8 +2627,8 @@
     <mergeCell ref="P5:P7"/>
     <mergeCell ref="N5:O5"/>
     <mergeCell ref="J29:S29"/>
+    <mergeCell ref="B8:C8"/>
     <mergeCell ref="L8:M8"/>
-    <mergeCell ref="B8:C8"/>
     <mergeCell ref="N8:O8"/>
     <mergeCell ref="F8:G8"/>
     <mergeCell ref="H11:I11"/>
@@ -2615,13 +2641,13 @@
     <mergeCell ref="A1:A5"/>
     <mergeCell ref="D9:E9"/>
     <mergeCell ref="F9:G9"/>
+    <mergeCell ref="D12:E12"/>
     <mergeCell ref="L9:M9"/>
-    <mergeCell ref="D12:E12"/>
     <mergeCell ref="D8:E8"/>
     <mergeCell ref="N9:O9"/>
     <mergeCell ref="B6:C6"/>
+    <mergeCell ref="H12:I12"/>
     <mergeCell ref="B3:D3"/>
-    <mergeCell ref="H12:I12"/>
     <mergeCell ref="J12:K12"/>
     <mergeCell ref="L6:M6"/>
     <mergeCell ref="N6:O6"/>
@@ -2644,106 +2670,105 @@
   </sheetPr>
   <dimension ref="A1:S80"/>
   <sheetViews>
-    <sheetView topLeftCell="C2" workbookViewId="0">
+    <sheetView topLeftCell="A2" workbookViewId="0">
       <selection activeCell="N8" sqref="N8:O8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="8.5703125" defaultRowHeight="15"/>
   <cols>
-    <col width="28.515625" customWidth="1" style="67" min="1" max="1"/>
-    <col width="5.6484375" customWidth="1" style="67" min="2" max="14"/>
-    <col width="5.6484375" customWidth="1" style="81" min="15" max="15"/>
-    <col width="13.1796875" customWidth="1" style="67" min="16" max="16"/>
-    <col width="8.609375" customWidth="1" style="67" min="17" max="101"/>
-    <col width="8.609375" customWidth="1" style="67" min="102" max="16384"/>
+    <col width="28.5703125" customWidth="1" style="70" min="1" max="1"/>
+    <col width="5.7109375" customWidth="1" style="70" min="2" max="14"/>
+    <col width="5.7109375" customWidth="1" style="87" min="15" max="15"/>
+    <col width="13.140625" customWidth="1" style="70" min="16" max="16"/>
+    <col width="8.5703125" customWidth="1" style="70" min="17" max="102"/>
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="71" t="n"/>
+      <c r="A1" s="74" t="n"/>
     </row>
     <row r="2"/>
     <row r="3">
-      <c r="B3" s="85">
+      <c r="B3" s="81">
         <f>A80</f>
         <v/>
       </c>
-      <c r="C3" s="61" t="n"/>
-      <c r="D3" s="62" t="n"/>
+      <c r="C3" s="64" t="n"/>
+      <c r="D3" s="65" t="n"/>
       <c r="E3" s="24" t="n"/>
     </row>
     <row r="4">
-      <c r="B4" s="68" t="inlineStr">
+      <c r="B4" s="71" t="inlineStr">
         <is>
           <t>NÁZEV PROJEKTU : Crapiterie, Spa</t>
         </is>
       </c>
-      <c r="C4" s="61" t="n"/>
-      <c r="D4" s="61" t="n"/>
-      <c r="E4" s="61" t="n"/>
-      <c r="F4" s="61" t="n"/>
-      <c r="G4" s="61" t="n"/>
-      <c r="H4" s="61" t="n"/>
-      <c r="I4" s="61" t="n"/>
-      <c r="J4" s="61" t="n"/>
-      <c r="K4" s="61" t="n"/>
-      <c r="L4" s="61" t="n"/>
-      <c r="M4" s="61" t="n"/>
-      <c r="N4" s="61" t="n"/>
-      <c r="O4" s="61" t="n"/>
-      <c r="P4" s="62" t="n"/>
+      <c r="C4" s="64" t="n"/>
+      <c r="D4" s="64" t="n"/>
+      <c r="E4" s="64" t="n"/>
+      <c r="F4" s="64" t="n"/>
+      <c r="G4" s="64" t="n"/>
+      <c r="H4" s="64" t="n"/>
+      <c r="I4" s="64" t="n"/>
+      <c r="J4" s="64" t="n"/>
+      <c r="K4" s="64" t="n"/>
+      <c r="L4" s="64" t="n"/>
+      <c r="M4" s="64" t="n"/>
+      <c r="N4" s="64" t="n"/>
+      <c r="O4" s="64" t="n"/>
+      <c r="P4" s="65" t="n"/>
     </row>
     <row r="5">
-      <c r="A5" s="71" t="n"/>
-      <c r="B5" s="87" t="inlineStr">
+      <c r="A5" s="74" t="n"/>
+      <c r="B5" s="83" t="inlineStr">
         <is>
           <t>Pondělí</t>
         </is>
       </c>
-      <c r="C5" s="62" t="n"/>
-      <c r="D5" s="77" t="inlineStr">
+      <c r="C5" s="65" t="n"/>
+      <c r="D5" s="84" t="inlineStr">
         <is>
           <t>Úterý</t>
         </is>
       </c>
-      <c r="E5" s="62" t="n"/>
-      <c r="F5" s="77" t="inlineStr">
+      <c r="E5" s="65" t="n"/>
+      <c r="F5" s="84" t="inlineStr">
         <is>
           <t>Středa</t>
         </is>
       </c>
-      <c r="G5" s="62" t="n"/>
-      <c r="H5" s="77" t="inlineStr">
+      <c r="G5" s="65" t="n"/>
+      <c r="H5" s="84" t="inlineStr">
         <is>
           <t>Čtvrtek</t>
         </is>
       </c>
-      <c r="I5" s="62" t="n"/>
-      <c r="J5" s="77" t="inlineStr">
+      <c r="I5" s="65" t="n"/>
+      <c r="J5" s="84" t="inlineStr">
         <is>
           <t>Pátek</t>
         </is>
       </c>
-      <c r="K5" s="62" t="n"/>
-      <c r="L5" s="77" t="inlineStr">
+      <c r="K5" s="65" t="n"/>
+      <c r="L5" s="84" t="inlineStr">
         <is>
           <t>Sobota</t>
         </is>
       </c>
-      <c r="M5" s="62" t="n"/>
-      <c r="N5" s="82" t="inlineStr">
+      <c r="M5" s="65" t="n"/>
+      <c r="N5" s="86" t="inlineStr">
         <is>
           <t>Neděle</t>
         </is>
       </c>
-      <c r="O5" s="62" t="n"/>
-      <c r="P5" s="63" t="inlineStr">
+      <c r="O5" s="65" t="n"/>
+      <c r="P5" s="66" t="inlineStr">
         <is>
           <t>HODINY CELKEM</t>
         </is>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="70" t="inlineStr">
+    <row r="6" ht="15.75" customHeight="1" s="70">
+      <c r="A6" s="73" t="inlineStr">
         <is>
           <t>Jméno pracovníka:</t>
         </is>
@@ -2778,37 +2803,37 @@
         <v/>
       </c>
       <c r="M6" s="80" t="n"/>
-      <c r="N6" s="86">
+      <c r="N6" s="82">
         <f>N80</f>
         <v/>
       </c>
       <c r="O6" s="80" t="n"/>
-      <c r="P6" s="64" t="n"/>
+      <c r="P6" s="67" t="n"/>
     </row>
     <row r="7">
-      <c r="A7" s="71" t="n"/>
+      <c r="A7" s="74" t="n"/>
       <c r="B7" s="41" t="n"/>
       <c r="C7" s="41" t="n"/>
-      <c r="D7" s="73" t="n"/>
-      <c r="E7" s="73" t="n"/>
-      <c r="F7" s="73" t="n"/>
-      <c r="G7" s="73" t="n"/>
-      <c r="H7" s="73" t="inlineStr">
+      <c r="D7" s="89" t="n"/>
+      <c r="E7" s="89" t="n"/>
+      <c r="F7" s="89" t="n"/>
+      <c r="G7" s="89" t="n"/>
+      <c r="H7" s="89" t="inlineStr">
         <is>
           <t>07:00</t>
         </is>
       </c>
-      <c r="I7" s="73" t="inlineStr">
+      <c r="I7" s="89" t="inlineStr">
         <is>
           <t>18:00</t>
         </is>
       </c>
-      <c r="J7" s="73" t="inlineStr">
+      <c r="J7" s="89" t="inlineStr">
         <is>
           <t>09:00</t>
         </is>
       </c>
-      <c r="K7" s="73" t="inlineStr">
+      <c r="K7" s="89" t="inlineStr">
         <is>
           <t>18:00</t>
         </is>
@@ -2823,7 +2848,7 @@
           <t>18:00</t>
         </is>
       </c>
-      <c r="N7" s="73" t="inlineStr">
+      <c r="N7" s="89" t="inlineStr">
         <is>
           <t>x</t>
         </is>
@@ -2833,7 +2858,7 @@
           <t>x</t>
         </is>
       </c>
-      <c r="P7" s="65" t="n"/>
+      <c r="P7" s="68" t="n"/>
     </row>
     <row r="8">
       <c r="A8" s="37" t="inlineStr">
@@ -2842,29 +2867,29 @@
         </is>
       </c>
       <c r="B8" s="76" t="n"/>
-      <c r="C8" s="74" t="n"/>
+      <c r="C8" s="77" t="n"/>
       <c r="D8" s="76" t="n"/>
-      <c r="E8" s="74" t="n"/>
-      <c r="F8" s="83" t="n"/>
-      <c r="G8" s="74" t="n"/>
-      <c r="H8" s="83" t="n">
+      <c r="E8" s="77" t="n"/>
+      <c r="F8" s="85" t="n"/>
+      <c r="G8" s="77" t="n"/>
+      <c r="H8" s="85" t="n">
         <v>10.5</v>
       </c>
-      <c r="I8" s="74" t="n"/>
-      <c r="J8" s="83" t="n">
+      <c r="I8" s="77" t="n"/>
+      <c r="J8" s="85" t="n">
         <v>8.5</v>
       </c>
-      <c r="K8" s="74" t="n"/>
-      <c r="L8" s="83" t="n">
+      <c r="K8" s="77" t="n"/>
+      <c r="L8" s="85" t="n">
         <v>9.5</v>
       </c>
-      <c r="M8" s="74" t="n"/>
-      <c r="N8" s="84" t="inlineStr">
+      <c r="M8" s="77" t="n"/>
+      <c r="N8" s="78" t="inlineStr">
         <is>
           <t>x</t>
         </is>
       </c>
-      <c r="O8" s="74" t="n"/>
+      <c r="O8" s="77" t="n"/>
       <c r="P8" s="39">
         <f>SUM(B8:N8)</f>
         <v/>
@@ -2877,29 +2902,29 @@
         </is>
       </c>
       <c r="B9" s="76" t="n"/>
-      <c r="C9" s="74" t="n"/>
+      <c r="C9" s="77" t="n"/>
       <c r="D9" s="76" t="n"/>
-      <c r="E9" s="74" t="n"/>
+      <c r="E9" s="77" t="n"/>
       <c r="F9" s="76" t="n"/>
-      <c r="G9" s="74" t="n"/>
+      <c r="G9" s="77" t="n"/>
       <c r="H9" s="76" t="n">
         <v>10.5</v>
       </c>
-      <c r="I9" s="74" t="n"/>
+      <c r="I9" s="77" t="n"/>
       <c r="J9" s="76" t="n">
         <v>8.5</v>
       </c>
-      <c r="K9" s="74" t="n"/>
+      <c r="K9" s="77" t="n"/>
       <c r="L9" s="76" t="n">
         <v>9.5</v>
       </c>
-      <c r="M9" s="74" t="n"/>
-      <c r="N9" s="84" t="inlineStr">
+      <c r="M9" s="77" t="n"/>
+      <c r="N9" s="78" t="inlineStr">
         <is>
           <t>x</t>
         </is>
       </c>
-      <c r="O9" s="74" t="n"/>
+      <c r="O9" s="77" t="n"/>
       <c r="P9" s="39">
         <f>SUM(B9:N9)</f>
         <v/>
@@ -2908,19 +2933,19 @@
     <row r="10">
       <c r="A10" s="44" t="n"/>
       <c r="B10" s="76" t="n"/>
-      <c r="C10" s="74" t="n"/>
+      <c r="C10" s="77" t="n"/>
       <c r="D10" s="76" t="n"/>
-      <c r="E10" s="74" t="n"/>
+      <c r="E10" s="77" t="n"/>
       <c r="F10" s="76" t="n"/>
-      <c r="G10" s="74" t="n"/>
-      <c r="H10" s="78" t="n"/>
-      <c r="I10" s="74" t="n"/>
+      <c r="G10" s="77" t="n"/>
+      <c r="H10" s="88" t="n"/>
+      <c r="I10" s="77" t="n"/>
       <c r="J10" s="76" t="n"/>
-      <c r="K10" s="74" t="n"/>
+      <c r="K10" s="77" t="n"/>
       <c r="L10" s="76" t="n"/>
-      <c r="M10" s="74" t="n"/>
+      <c r="M10" s="77" t="n"/>
       <c r="N10" s="76" t="n"/>
-      <c r="O10" s="74" t="n"/>
+      <c r="O10" s="77" t="n"/>
       <c r="P10" s="39">
         <f>SUM(B10:O10)</f>
         <v/>
@@ -2932,16 +2957,16 @@
       <c r="C11" s="40" t="n"/>
       <c r="D11" s="40" t="n"/>
       <c r="E11" s="40" t="n"/>
-      <c r="F11" s="73" t="n"/>
-      <c r="G11" s="73" t="n"/>
-      <c r="H11" s="78" t="n"/>
-      <c r="I11" s="78" t="n"/>
+      <c r="F11" s="89" t="n"/>
+      <c r="G11" s="89" t="n"/>
+      <c r="H11" s="88" t="n"/>
+      <c r="I11" s="88" t="n"/>
       <c r="J11" s="76" t="n"/>
       <c r="K11" s="76" t="n"/>
       <c r="L11" s="76" t="n"/>
       <c r="M11" s="76" t="n"/>
       <c r="N11" s="76" t="n"/>
-      <c r="O11" s="84" t="n"/>
+      <c r="O11" s="78" t="n"/>
       <c r="P11" s="39">
         <f>SUM(B11:O11)</f>
         <v/>
@@ -2953,16 +2978,16 @@
       <c r="C12" s="76" t="n"/>
       <c r="D12" s="76" t="n"/>
       <c r="E12" s="76" t="n"/>
-      <c r="F12" s="73" t="n"/>
-      <c r="G12" s="73" t="n"/>
-      <c r="H12" s="78" t="n"/>
-      <c r="I12" s="78" t="n"/>
+      <c r="F12" s="89" t="n"/>
+      <c r="G12" s="89" t="n"/>
+      <c r="H12" s="88" t="n"/>
+      <c r="I12" s="88" t="n"/>
       <c r="J12" s="76" t="n"/>
       <c r="K12" s="76" t="n"/>
       <c r="L12" s="76" t="n"/>
       <c r="M12" s="76" t="n"/>
       <c r="N12" s="76" t="n"/>
-      <c r="O12" s="84" t="n"/>
+      <c r="O12" s="78" t="n"/>
       <c r="P12" s="39">
         <f>SUM(B12:O12)</f>
         <v/>
@@ -2976,14 +3001,14 @@
       <c r="E13" s="76" t="n"/>
       <c r="F13" s="49" t="n"/>
       <c r="G13" s="49" t="n"/>
-      <c r="H13" s="78" t="n"/>
-      <c r="I13" s="78" t="n"/>
+      <c r="H13" s="88" t="n"/>
+      <c r="I13" s="88" t="n"/>
       <c r="J13" s="76" t="n"/>
       <c r="K13" s="76" t="n"/>
       <c r="L13" s="76" t="n"/>
       <c r="M13" s="76" t="n"/>
       <c r="N13" s="76" t="n"/>
-      <c r="O13" s="84" t="n"/>
+      <c r="O13" s="78" t="n"/>
       <c r="P13" s="39">
         <f>SUM(B13:O13)</f>
         <v/>
@@ -3004,7 +3029,7 @@
       <c r="L14" s="76" t="n"/>
       <c r="M14" s="76" t="n"/>
       <c r="N14" s="76" t="n"/>
-      <c r="O14" s="84" t="n"/>
+      <c r="O14" s="78" t="n"/>
       <c r="P14" s="39">
         <f>SUM(B14:O14)</f>
         <v/>
@@ -3025,7 +3050,7 @@
       <c r="L15" s="76" t="n"/>
       <c r="M15" s="76" t="n"/>
       <c r="N15" s="76" t="n"/>
-      <c r="O15" s="84" t="n"/>
+      <c r="O15" s="78" t="n"/>
       <c r="P15" s="39">
         <f>SUM(H15:O15)</f>
         <v/>
@@ -3046,7 +3071,7 @@
       <c r="L16" s="76" t="n"/>
       <c r="M16" s="76" t="n"/>
       <c r="N16" s="76" t="n"/>
-      <c r="O16" s="84" t="n"/>
+      <c r="O16" s="78" t="n"/>
       <c r="P16" s="39">
         <f>SUM(B16:O16)</f>
         <v/>
@@ -3067,7 +3092,7 @@
       <c r="L17" s="76" t="n"/>
       <c r="M17" s="76" t="n"/>
       <c r="N17" s="76" t="n"/>
-      <c r="O17" s="84" t="n"/>
+      <c r="O17" s="78" t="n"/>
       <c r="P17" s="39">
         <f>SUM(B17:O17)</f>
         <v/>
@@ -3088,7 +3113,7 @@
       <c r="L18" s="76" t="n"/>
       <c r="M18" s="76" t="n"/>
       <c r="N18" s="76" t="n"/>
-      <c r="O18" s="84" t="n"/>
+      <c r="O18" s="78" t="n"/>
       <c r="P18" s="39">
         <f>SUM(B18:O18)</f>
         <v/>
@@ -3109,7 +3134,7 @@
       <c r="L19" s="76" t="n"/>
       <c r="M19" s="76" t="n"/>
       <c r="N19" s="76" t="n"/>
-      <c r="O19" s="84" t="n"/>
+      <c r="O19" s="78" t="n"/>
       <c r="P19" s="39">
         <f>SUM(B19:O19)</f>
         <v/>
@@ -3130,7 +3155,7 @@
       <c r="L20" s="76" t="n"/>
       <c r="M20" s="76" t="n"/>
       <c r="N20" s="76" t="n"/>
-      <c r="O20" s="84" t="n"/>
+      <c r="O20" s="78" t="n"/>
       <c r="P20" s="39">
         <f>SUM(B20:O20)</f>
         <v/>
@@ -3151,7 +3176,7 @@
       <c r="L21" s="76" t="n"/>
       <c r="M21" s="76" t="n"/>
       <c r="N21" s="76" t="n"/>
-      <c r="O21" s="84" t="n"/>
+      <c r="O21" s="78" t="n"/>
       <c r="P21" s="39">
         <f>SUM(B21:O21)</f>
         <v/>
@@ -3172,7 +3197,7 @@
       <c r="L22" s="76" t="n"/>
       <c r="M22" s="76" t="n"/>
       <c r="N22" s="76" t="n"/>
-      <c r="O22" s="84" t="n"/>
+      <c r="O22" s="78" t="n"/>
       <c r="P22" s="39">
         <f>SUM(B22:O22)</f>
         <v/>
@@ -3211,7 +3236,7 @@
         <v>0.5208333333333334</v>
       </c>
       <c r="G25" s="22" t="n"/>
-      <c r="J25" s="66" t="inlineStr">
+      <c r="J25" s="69" t="inlineStr">
         <is>
           <t>HODINY PROSÍM VYPLŇOVAT V ČISTÉM ČASE, BEZ PŘESTÁVEK.</t>
         </is>
@@ -3219,9 +3244,9 @@
     </row>
     <row r="26">
       <c r="A26" s="17" t="n"/>
-      <c r="D26" s="68" t="n"/>
-      <c r="E26" s="68" t="n"/>
-      <c r="F26" s="68" t="n"/>
+      <c r="D26" s="71" t="n"/>
+      <c r="E26" s="71" t="n"/>
+      <c r="F26" s="71" t="n"/>
       <c r="G26" s="24" t="n"/>
       <c r="J26" s="4" t="n"/>
       <c r="K26" s="4" t="n"/>
@@ -3235,38 +3260,38 @@
     </row>
     <row r="27">
       <c r="A27" s="17" t="n"/>
-      <c r="D27" s="68" t="n"/>
-      <c r="E27" s="68" t="n"/>
-      <c r="F27" s="68" t="n"/>
+      <c r="D27" s="71" t="n"/>
+      <c r="E27" s="71" t="n"/>
+      <c r="F27" s="71" t="n"/>
       <c r="G27" s="24" t="n"/>
     </row>
     <row r="28">
       <c r="A28" s="17" t="n"/>
-      <c r="D28" s="68" t="n"/>
-      <c r="E28" s="68" t="n"/>
-      <c r="F28" s="68" t="n"/>
+      <c r="D28" s="71" t="n"/>
+      <c r="E28" s="71" t="n"/>
+      <c r="F28" s="71" t="n"/>
       <c r="G28" s="24" t="n"/>
     </row>
     <row r="29">
-      <c r="J29" s="66" t="inlineStr">
+      <c r="J29" s="69" t="inlineStr">
         <is>
           <t>HODINY PROSÍM POSÍLAT TÝDNĚ NA EMAIL: hodiny@czechmontage.cz</t>
         </is>
       </c>
     </row>
     <row r="30">
-      <c r="A30" s="75" t="inlineStr">
+      <c r="A30" s="90" t="inlineStr">
         <is>
           <t>Přejezdy z projektu na projekt - pouze pracovní cesty z jednoho projektu na druhý!</t>
         </is>
       </c>
-      <c r="B30" s="61" t="n"/>
-      <c r="C30" s="61" t="n"/>
-      <c r="D30" s="61" t="n"/>
-      <c r="E30" s="61" t="n"/>
-      <c r="F30" s="61" t="n"/>
-      <c r="G30" s="61" t="n"/>
-      <c r="H30" s="62" t="n"/>
+      <c r="B30" s="64" t="n"/>
+      <c r="C30" s="64" t="n"/>
+      <c r="D30" s="64" t="n"/>
+      <c r="E30" s="64" t="n"/>
+      <c r="F30" s="64" t="n"/>
+      <c r="G30" s="64" t="n"/>
+      <c r="H30" s="65" t="n"/>
       <c r="I30" s="23" t="n"/>
     </row>
     <row r="31">
@@ -3275,25 +3300,25 @@
           <t>Jméno pracovníka</t>
         </is>
       </c>
-      <c r="B31" s="68" t="inlineStr">
+      <c r="B31" s="71" t="inlineStr">
         <is>
           <t>Odkud</t>
         </is>
       </c>
-      <c r="C31" s="68" t="n"/>
-      <c r="D31" s="68" t="inlineStr">
+      <c r="C31" s="71" t="n"/>
+      <c r="D31" s="71" t="inlineStr">
         <is>
           <t xml:space="preserve">Kam </t>
         </is>
       </c>
-      <c r="E31" s="68" t="n"/>
-      <c r="F31" s="68" t="inlineStr">
+      <c r="E31" s="71" t="n"/>
+      <c r="F31" s="71" t="inlineStr">
         <is>
           <t xml:space="preserve">Kdy </t>
         </is>
       </c>
-      <c r="G31" s="68" t="n"/>
-      <c r="H31" s="68" t="inlineStr">
+      <c r="G31" s="71" t="n"/>
+      <c r="H31" s="71" t="inlineStr">
         <is>
           <t>Délka cesty</t>
         </is>
@@ -3314,7 +3339,7 @@
       <c r="E32" s="45" t="n"/>
       <c r="F32" s="46" t="n"/>
       <c r="G32" s="46" t="n"/>
-      <c r="H32" s="68" t="n"/>
+      <c r="H32" s="71" t="n"/>
       <c r="I32" s="24" t="n"/>
       <c r="J32" s="25" t="n"/>
       <c r="K32" s="25" t="n"/>
@@ -3327,7 +3352,7 @@
       <c r="E33" s="45" t="n"/>
       <c r="F33" s="46" t="n"/>
       <c r="G33" s="46" t="n"/>
-      <c r="H33" s="68" t="n"/>
+      <c r="H33" s="71" t="n"/>
       <c r="I33" s="24" t="n"/>
     </row>
     <row r="34">
@@ -3338,7 +3363,7 @@
       <c r="E34" s="18" t="n"/>
       <c r="F34" s="29" t="n"/>
       <c r="G34" s="29" t="n"/>
-      <c r="H34" s="68" t="n"/>
+      <c r="H34" s="71" t="n"/>
       <c r="I34" s="24" t="n"/>
     </row>
     <row r="35">
@@ -3355,25 +3380,25 @@
           <t>Týden 38</t>
         </is>
       </c>
-      <c r="B80" s="88" t="n"/>
-      <c r="C80" s="88" t="n"/>
-      <c r="D80" s="88" t="n"/>
-      <c r="E80" s="88" t="n"/>
-      <c r="F80" s="88" t="n"/>
-      <c r="G80" s="88" t="n"/>
-      <c r="H80" s="88" t="n">
+      <c r="B80" s="36" t="n"/>
+      <c r="C80" s="36" t="n"/>
+      <c r="D80" s="36" t="n"/>
+      <c r="E80" s="36" t="n"/>
+      <c r="F80" s="36" t="n"/>
+      <c r="G80" s="36" t="n"/>
+      <c r="H80" s="36" t="n">
         <v>45554</v>
       </c>
-      <c r="I80" s="88" t="n"/>
-      <c r="J80" s="88" t="n">
+      <c r="I80" s="36" t="n"/>
+      <c r="J80" s="36" t="n">
         <v>45555</v>
       </c>
-      <c r="K80" s="88" t="n"/>
-      <c r="L80" s="88" t="n">
+      <c r="K80" s="36" t="n"/>
+      <c r="L80" s="36" t="n">
         <v>45556</v>
       </c>
-      <c r="M80" s="88" t="n"/>
-      <c r="N80" s="88" t="n">
+      <c r="M80" s="36" t="n"/>
+      <c r="N80" s="36" t="n">
         <v>45557</v>
       </c>
     </row>
@@ -3435,106 +3460,105 @@
   </sheetPr>
   <dimension ref="A1:S80"/>
   <sheetViews>
-    <sheetView topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="B81" sqref="B81"/>
+    <sheetView topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="J33" sqref="J33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="8.5703125" defaultRowHeight="15"/>
   <cols>
-    <col width="28.515625" customWidth="1" style="67" min="1" max="1"/>
-    <col width="5.6484375" customWidth="1" style="67" min="2" max="14"/>
-    <col width="5.6484375" customWidth="1" style="81" min="15" max="15"/>
-    <col width="13.1796875" customWidth="1" style="67" min="16" max="16"/>
-    <col width="8.609375" customWidth="1" style="67" min="17" max="101"/>
-    <col width="8.609375" customWidth="1" style="67" min="102" max="16384"/>
+    <col width="28.5703125" customWidth="1" style="70" min="1" max="1"/>
+    <col width="5.7109375" customWidth="1" style="70" min="2" max="14"/>
+    <col width="5.7109375" customWidth="1" style="87" min="15" max="15"/>
+    <col width="13.140625" customWidth="1" style="70" min="16" max="16"/>
+    <col width="8.5703125" customWidth="1" style="70" min="17" max="102"/>
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="71" t="n"/>
+      <c r="A1" s="74" t="n"/>
     </row>
     <row r="2"/>
     <row r="3">
-      <c r="B3" s="85">
+      <c r="B3" s="81">
         <f>A80</f>
         <v/>
       </c>
-      <c r="C3" s="61" t="n"/>
-      <c r="D3" s="62" t="n"/>
+      <c r="C3" s="64" t="n"/>
+      <c r="D3" s="65" t="n"/>
       <c r="E3" s="24" t="n"/>
     </row>
     <row r="4">
-      <c r="B4" s="68" t="inlineStr">
+      <c r="B4" s="71" t="inlineStr">
         <is>
           <t>NÁZEV PROJEKTU : Larfrost</t>
         </is>
       </c>
-      <c r="C4" s="61" t="n"/>
-      <c r="D4" s="61" t="n"/>
-      <c r="E4" s="61" t="n"/>
-      <c r="F4" s="61" t="n"/>
-      <c r="G4" s="61" t="n"/>
-      <c r="H4" s="61" t="n"/>
-      <c r="I4" s="61" t="n"/>
-      <c r="J4" s="61" t="n"/>
-      <c r="K4" s="61" t="n"/>
-      <c r="L4" s="61" t="n"/>
-      <c r="M4" s="61" t="n"/>
-      <c r="N4" s="61" t="n"/>
-      <c r="O4" s="61" t="n"/>
-      <c r="P4" s="62" t="n"/>
+      <c r="C4" s="64" t="n"/>
+      <c r="D4" s="64" t="n"/>
+      <c r="E4" s="64" t="n"/>
+      <c r="F4" s="64" t="n"/>
+      <c r="G4" s="64" t="n"/>
+      <c r="H4" s="64" t="n"/>
+      <c r="I4" s="64" t="n"/>
+      <c r="J4" s="64" t="n"/>
+      <c r="K4" s="64" t="n"/>
+      <c r="L4" s="64" t="n"/>
+      <c r="M4" s="64" t="n"/>
+      <c r="N4" s="64" t="n"/>
+      <c r="O4" s="64" t="n"/>
+      <c r="P4" s="65" t="n"/>
     </row>
     <row r="5">
-      <c r="A5" s="71" t="n"/>
-      <c r="B5" s="87" t="inlineStr">
+      <c r="A5" s="74" t="n"/>
+      <c r="B5" s="83" t="inlineStr">
         <is>
           <t>Pondělí</t>
         </is>
       </c>
-      <c r="C5" s="62" t="n"/>
-      <c r="D5" s="77" t="inlineStr">
+      <c r="C5" s="65" t="n"/>
+      <c r="D5" s="84" t="inlineStr">
         <is>
           <t>Úterý</t>
         </is>
       </c>
-      <c r="E5" s="62" t="n"/>
-      <c r="F5" s="77" t="inlineStr">
+      <c r="E5" s="65" t="n"/>
+      <c r="F5" s="84" t="inlineStr">
         <is>
           <t>Středa</t>
         </is>
       </c>
-      <c r="G5" s="62" t="n"/>
-      <c r="H5" s="77" t="inlineStr">
+      <c r="G5" s="65" t="n"/>
+      <c r="H5" s="84" t="inlineStr">
         <is>
           <t>Čtvrtek</t>
         </is>
       </c>
-      <c r="I5" s="62" t="n"/>
-      <c r="J5" s="77" t="inlineStr">
+      <c r="I5" s="65" t="n"/>
+      <c r="J5" s="84" t="inlineStr">
         <is>
           <t>Pátek</t>
         </is>
       </c>
-      <c r="K5" s="62" t="n"/>
-      <c r="L5" s="77" t="inlineStr">
+      <c r="K5" s="65" t="n"/>
+      <c r="L5" s="84" t="inlineStr">
         <is>
           <t>Sobota</t>
         </is>
       </c>
-      <c r="M5" s="62" t="n"/>
-      <c r="N5" s="82" t="inlineStr">
+      <c r="M5" s="65" t="n"/>
+      <c r="N5" s="86" t="inlineStr">
         <is>
           <t>Neděle</t>
         </is>
       </c>
-      <c r="O5" s="62" t="n"/>
-      <c r="P5" s="63" t="inlineStr">
+      <c r="O5" s="65" t="n"/>
+      <c r="P5" s="66" t="inlineStr">
         <is>
           <t>HODINY CELKEM</t>
         </is>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="70" t="inlineStr">
+    <row r="6" ht="15.75" customHeight="1" s="70">
+      <c r="A6" s="73" t="inlineStr">
         <is>
           <t>Jméno pracovníka:</t>
         </is>
@@ -3569,15 +3593,15 @@
         <v/>
       </c>
       <c r="M6" s="80" t="n"/>
-      <c r="N6" s="86">
+      <c r="N6" s="82">
         <f>N80</f>
         <v/>
       </c>
       <c r="O6" s="80" t="n"/>
-      <c r="P6" s="64" t="n"/>
+      <c r="P6" s="67" t="n"/>
     </row>
     <row r="7">
-      <c r="A7" s="71" t="n"/>
+      <c r="A7" s="74" t="n"/>
       <c r="B7" s="41" t="inlineStr">
         <is>
           <t>07:00</t>
@@ -3588,42 +3612,42 @@
           <t>16:30</t>
         </is>
       </c>
-      <c r="D7" s="73" t="inlineStr">
+      <c r="D7" s="89" t="inlineStr">
         <is>
           <t>07:00</t>
         </is>
       </c>
-      <c r="E7" s="73" t="inlineStr">
+      <c r="E7" s="89" t="inlineStr">
         <is>
           <t>18:00</t>
         </is>
       </c>
-      <c r="F7" s="73" t="inlineStr">
+      <c r="F7" s="89" t="inlineStr">
         <is>
           <t>07:00</t>
         </is>
       </c>
-      <c r="G7" s="73" t="inlineStr">
+      <c r="G7" s="89" t="inlineStr">
         <is>
           <t>18:00</t>
         </is>
       </c>
-      <c r="H7" s="73" t="inlineStr">
+      <c r="H7" s="89" t="inlineStr">
         <is>
           <t>07:00</t>
         </is>
       </c>
-      <c r="I7" s="73" t="inlineStr">
+      <c r="I7" s="89" t="inlineStr">
         <is>
           <t>18:00</t>
         </is>
       </c>
-      <c r="J7" s="73" t="inlineStr">
+      <c r="J7" s="89" t="inlineStr">
         <is>
           <t>07:00</t>
         </is>
       </c>
-      <c r="K7" s="73" t="inlineStr">
+      <c r="K7" s="89" t="inlineStr">
         <is>
           <t>18:00</t>
         </is>
@@ -3638,7 +3662,7 @@
           <t>14:00</t>
         </is>
       </c>
-      <c r="N7" s="73" t="inlineStr">
+      <c r="N7" s="89" t="inlineStr">
         <is>
           <t>x</t>
         </is>
@@ -3648,7 +3672,7 @@
           <t>x</t>
         </is>
       </c>
-      <c r="P7" s="65" t="n"/>
+      <c r="P7" s="68" t="n"/>
     </row>
     <row r="8">
       <c r="A8" s="37" t="inlineStr">
@@ -3659,33 +3683,33 @@
       <c r="B8" s="76" t="n">
         <v>7</v>
       </c>
-      <c r="C8" s="74" t="n"/>
+      <c r="C8" s="77" t="n"/>
       <c r="D8" s="76" t="n">
         <v>10.5</v>
       </c>
-      <c r="E8" s="74" t="n"/>
-      <c r="F8" s="83" t="n">
+      <c r="E8" s="77" t="n"/>
+      <c r="F8" s="85" t="n">
         <v>10</v>
       </c>
-      <c r="G8" s="74" t="n"/>
-      <c r="H8" s="83" t="n">
+      <c r="G8" s="77" t="n"/>
+      <c r="H8" s="85" t="n">
         <v>10</v>
       </c>
-      <c r="I8" s="74" t="n"/>
-      <c r="J8" s="83" t="n">
+      <c r="I8" s="77" t="n"/>
+      <c r="J8" s="85" t="n">
         <v>10</v>
       </c>
-      <c r="K8" s="74" t="n"/>
-      <c r="L8" s="83" t="n">
+      <c r="K8" s="77" t="n"/>
+      <c r="L8" s="85" t="n">
         <v>8</v>
       </c>
-      <c r="M8" s="74" t="n"/>
-      <c r="N8" s="84" t="inlineStr">
+      <c r="M8" s="77" t="n"/>
+      <c r="N8" s="78" t="inlineStr">
         <is>
           <t>x</t>
         </is>
       </c>
-      <c r="O8" s="74" t="n"/>
+      <c r="O8" s="77" t="n"/>
       <c r="P8" s="39">
         <f>SUM(B8:N8)</f>
         <v/>
@@ -3700,33 +3724,33 @@
       <c r="B9" s="76" t="n">
         <v>9</v>
       </c>
-      <c r="C9" s="74" t="n"/>
+      <c r="C9" s="77" t="n"/>
       <c r="D9" s="76" t="n">
         <v>10.5</v>
       </c>
-      <c r="E9" s="74" t="n"/>
+      <c r="E9" s="77" t="n"/>
       <c r="F9" s="76" t="n">
         <v>10</v>
       </c>
-      <c r="G9" s="74" t="n"/>
+      <c r="G9" s="77" t="n"/>
       <c r="H9" s="76" t="n">
         <v>10</v>
       </c>
-      <c r="I9" s="74" t="n"/>
+      <c r="I9" s="77" t="n"/>
       <c r="J9" s="76" t="n">
         <v>10</v>
       </c>
-      <c r="K9" s="74" t="n"/>
+      <c r="K9" s="77" t="n"/>
       <c r="L9" s="76" t="n">
         <v>8</v>
       </c>
-      <c r="M9" s="74" t="n"/>
-      <c r="N9" s="84" t="inlineStr">
+      <c r="M9" s="77" t="n"/>
+      <c r="N9" s="78" t="inlineStr">
         <is>
           <t>x</t>
         </is>
       </c>
-      <c r="O9" s="74" t="n"/>
+      <c r="O9" s="77" t="n"/>
       <c r="P9" s="39">
         <f>SUM(B9:N9)</f>
         <v/>
@@ -3741,33 +3765,33 @@
       <c r="B10" s="76" t="n">
         <v>9</v>
       </c>
-      <c r="C10" s="74" t="n"/>
+      <c r="C10" s="77" t="n"/>
       <c r="D10" s="76" t="n">
         <v>10.5</v>
       </c>
-      <c r="E10" s="74" t="n"/>
+      <c r="E10" s="77" t="n"/>
       <c r="F10" s="76" t="n">
         <v>10</v>
       </c>
-      <c r="G10" s="74" t="n"/>
-      <c r="H10" s="78" t="n">
+      <c r="G10" s="77" t="n"/>
+      <c r="H10" s="88" t="n">
         <v>10</v>
       </c>
-      <c r="I10" s="74" t="n"/>
+      <c r="I10" s="77" t="n"/>
       <c r="J10" s="76" t="n">
         <v>10</v>
       </c>
-      <c r="K10" s="74" t="n"/>
+      <c r="K10" s="77" t="n"/>
       <c r="L10" s="76" t="n">
         <v>8</v>
       </c>
-      <c r="M10" s="74" t="n"/>
+      <c r="M10" s="77" t="n"/>
       <c r="N10" s="76" t="inlineStr">
         <is>
           <t>x</t>
         </is>
       </c>
-      <c r="O10" s="74" t="n"/>
+      <c r="O10" s="77" t="n"/>
       <c r="P10" s="39">
         <f>SUM(B10:O10)</f>
         <v/>
@@ -3779,16 +3803,16 @@
       <c r="C11" s="40" t="n"/>
       <c r="D11" s="40" t="n"/>
       <c r="E11" s="40" t="n"/>
-      <c r="F11" s="73" t="n"/>
-      <c r="G11" s="73" t="n"/>
-      <c r="H11" s="78" t="n"/>
-      <c r="I11" s="78" t="n"/>
+      <c r="F11" s="89" t="n"/>
+      <c r="G11" s="89" t="n"/>
+      <c r="H11" s="88" t="n"/>
+      <c r="I11" s="88" t="n"/>
       <c r="J11" s="76" t="n"/>
       <c r="K11" s="76" t="n"/>
       <c r="L11" s="76" t="n"/>
       <c r="M11" s="76" t="n"/>
       <c r="N11" s="76" t="n"/>
-      <c r="O11" s="84" t="n"/>
+      <c r="O11" s="78" t="n"/>
       <c r="P11" s="39">
         <f>SUM(B11:O11)</f>
         <v/>
@@ -3800,16 +3824,16 @@
       <c r="C12" s="76" t="n"/>
       <c r="D12" s="76" t="n"/>
       <c r="E12" s="76" t="n"/>
-      <c r="F12" s="73" t="n"/>
-      <c r="G12" s="73" t="n"/>
-      <c r="H12" s="78" t="n"/>
-      <c r="I12" s="78" t="n"/>
+      <c r="F12" s="89" t="n"/>
+      <c r="G12" s="89" t="n"/>
+      <c r="H12" s="88" t="n"/>
+      <c r="I12" s="88" t="n"/>
       <c r="J12" s="76" t="n"/>
       <c r="K12" s="76" t="n"/>
       <c r="L12" s="76" t="n"/>
       <c r="M12" s="76" t="n"/>
       <c r="N12" s="76" t="n"/>
-      <c r="O12" s="84" t="n"/>
+      <c r="O12" s="78" t="n"/>
       <c r="P12" s="39">
         <f>SUM(B12:O12)</f>
         <v/>
@@ -3823,14 +3847,14 @@
       <c r="E13" s="76" t="n"/>
       <c r="F13" s="49" t="n"/>
       <c r="G13" s="49" t="n"/>
-      <c r="H13" s="78" t="n"/>
-      <c r="I13" s="78" t="n"/>
+      <c r="H13" s="88" t="n"/>
+      <c r="I13" s="88" t="n"/>
       <c r="J13" s="76" t="n"/>
       <c r="K13" s="76" t="n"/>
       <c r="L13" s="76" t="n"/>
       <c r="M13" s="76" t="n"/>
       <c r="N13" s="76" t="n"/>
-      <c r="O13" s="84" t="n"/>
+      <c r="O13" s="78" t="n"/>
       <c r="P13" s="39">
         <f>SUM(B13:O13)</f>
         <v/>
@@ -3851,7 +3875,7 @@
       <c r="L14" s="76" t="n"/>
       <c r="M14" s="76" t="n"/>
       <c r="N14" s="76" t="n"/>
-      <c r="O14" s="84" t="n"/>
+      <c r="O14" s="78" t="n"/>
       <c r="P14" s="39">
         <f>SUM(B14:O14)</f>
         <v/>
@@ -3872,7 +3896,7 @@
       <c r="L15" s="76" t="n"/>
       <c r="M15" s="76" t="n"/>
       <c r="N15" s="76" t="n"/>
-      <c r="O15" s="84" t="n"/>
+      <c r="O15" s="78" t="n"/>
       <c r="P15" s="39">
         <f>SUM(H15:O15)</f>
         <v/>
@@ -3893,7 +3917,7 @@
       <c r="L16" s="76" t="n"/>
       <c r="M16" s="76" t="n"/>
       <c r="N16" s="76" t="n"/>
-      <c r="O16" s="84" t="n"/>
+      <c r="O16" s="78" t="n"/>
       <c r="P16" s="39">
         <f>SUM(B16:O16)</f>
         <v/>
@@ -3914,7 +3938,7 @@
       <c r="L17" s="76" t="n"/>
       <c r="M17" s="76" t="n"/>
       <c r="N17" s="76" t="n"/>
-      <c r="O17" s="84" t="n"/>
+      <c r="O17" s="78" t="n"/>
       <c r="P17" s="39">
         <f>SUM(B17:O17)</f>
         <v/>
@@ -3935,7 +3959,7 @@
       <c r="L18" s="76" t="n"/>
       <c r="M18" s="76" t="n"/>
       <c r="N18" s="76" t="n"/>
-      <c r="O18" s="84" t="n"/>
+      <c r="O18" s="78" t="n"/>
       <c r="P18" s="39">
         <f>SUM(B18:O18)</f>
         <v/>
@@ -3956,7 +3980,7 @@
       <c r="L19" s="76" t="n"/>
       <c r="M19" s="76" t="n"/>
       <c r="N19" s="76" t="n"/>
-      <c r="O19" s="84" t="n"/>
+      <c r="O19" s="78" t="n"/>
       <c r="P19" s="39">
         <f>SUM(B19:O19)</f>
         <v/>
@@ -3977,7 +4001,7 @@
       <c r="L20" s="76" t="n"/>
       <c r="M20" s="76" t="n"/>
       <c r="N20" s="76" t="n"/>
-      <c r="O20" s="84" t="n"/>
+      <c r="O20" s="78" t="n"/>
       <c r="P20" s="39">
         <f>SUM(B20:O20)</f>
         <v/>
@@ -3998,7 +4022,7 @@
       <c r="L21" s="76" t="n"/>
       <c r="M21" s="76" t="n"/>
       <c r="N21" s="76" t="n"/>
-      <c r="O21" s="84" t="n"/>
+      <c r="O21" s="78" t="n"/>
       <c r="P21" s="39">
         <f>SUM(B21:O21)</f>
         <v/>
@@ -4019,7 +4043,7 @@
       <c r="L22" s="76" t="n"/>
       <c r="M22" s="76" t="n"/>
       <c r="N22" s="76" t="n"/>
-      <c r="O22" s="84" t="n"/>
+      <c r="O22" s="78" t="n"/>
       <c r="P22" s="39">
         <f>SUM(B22:O22)</f>
         <v/>
@@ -4058,7 +4082,7 @@
         <v>0.5208333333333334</v>
       </c>
       <c r="G25" s="22" t="n"/>
-      <c r="J25" s="66" t="inlineStr">
+      <c r="J25" s="69" t="inlineStr">
         <is>
           <t>HODINY PROSÍM VYPLŇOVAT V ČISTÉM ČASE, BEZ PŘESTÁVEK.</t>
         </is>
@@ -4066,9 +4090,9 @@
     </row>
     <row r="26">
       <c r="A26" s="17" t="n"/>
-      <c r="D26" s="68" t="n"/>
-      <c r="E26" s="68" t="n"/>
-      <c r="F26" s="68" t="n"/>
+      <c r="D26" s="71" t="n"/>
+      <c r="E26" s="71" t="n"/>
+      <c r="F26" s="71" t="n"/>
       <c r="G26" s="24" t="n"/>
       <c r="J26" s="4" t="n"/>
       <c r="K26" s="4" t="n"/>
@@ -4082,38 +4106,38 @@
     </row>
     <row r="27">
       <c r="A27" s="17" t="n"/>
-      <c r="D27" s="68" t="n"/>
-      <c r="E27" s="68" t="n"/>
-      <c r="F27" s="68" t="n"/>
+      <c r="D27" s="71" t="n"/>
+      <c r="E27" s="71" t="n"/>
+      <c r="F27" s="71" t="n"/>
       <c r="G27" s="24" t="n"/>
     </row>
     <row r="28">
       <c r="A28" s="17" t="n"/>
-      <c r="D28" s="68" t="n"/>
-      <c r="E28" s="68" t="n"/>
-      <c r="F28" s="68" t="n"/>
+      <c r="D28" s="71" t="n"/>
+      <c r="E28" s="71" t="n"/>
+      <c r="F28" s="71" t="n"/>
       <c r="G28" s="24" t="n"/>
     </row>
     <row r="29">
-      <c r="J29" s="66" t="inlineStr">
+      <c r="J29" s="69" t="inlineStr">
         <is>
           <t>HODINY PROSÍM POSÍLAT TÝDNĚ NA EMAIL: hodiny@czechmontage.cz</t>
         </is>
       </c>
     </row>
     <row r="30">
-      <c r="A30" s="75" t="inlineStr">
+      <c r="A30" s="90" t="inlineStr">
         <is>
           <t>Přejezdy z projektu na projekt - pouze pracovní cesty z jednoho projektu na druhý!</t>
         </is>
       </c>
-      <c r="B30" s="61" t="n"/>
-      <c r="C30" s="61" t="n"/>
-      <c r="D30" s="61" t="n"/>
-      <c r="E30" s="61" t="n"/>
-      <c r="F30" s="61" t="n"/>
-      <c r="G30" s="61" t="n"/>
-      <c r="H30" s="62" t="n"/>
+      <c r="B30" s="64" t="n"/>
+      <c r="C30" s="64" t="n"/>
+      <c r="D30" s="64" t="n"/>
+      <c r="E30" s="64" t="n"/>
+      <c r="F30" s="64" t="n"/>
+      <c r="G30" s="64" t="n"/>
+      <c r="H30" s="65" t="n"/>
       <c r="I30" s="23" t="n"/>
     </row>
     <row r="31">
@@ -4122,25 +4146,25 @@
           <t>Jméno pracovníka</t>
         </is>
       </c>
-      <c r="B31" s="68" t="inlineStr">
+      <c r="B31" s="58" t="inlineStr">
         <is>
           <t>Odkud</t>
         </is>
       </c>
-      <c r="C31" s="68" t="n"/>
-      <c r="D31" s="68" t="inlineStr">
+      <c r="C31" s="58" t="n"/>
+      <c r="D31" s="71" t="inlineStr">
         <is>
           <t xml:space="preserve">Kam </t>
         </is>
       </c>
-      <c r="E31" s="68" t="n"/>
-      <c r="F31" s="68" t="inlineStr">
+      <c r="E31" s="71" t="n"/>
+      <c r="F31" s="71" t="inlineStr">
         <is>
           <t xml:space="preserve">Kdy </t>
         </is>
       </c>
-      <c r="G31" s="68" t="n"/>
-      <c r="H31" s="68" t="inlineStr">
+      <c r="G31" s="71" t="n"/>
+      <c r="H31" s="71" t="inlineStr">
         <is>
           <t>Délka cesty</t>
         </is>
@@ -4154,16 +4178,36 @@
       <c r="K31" s="25" t="n"/>
     </row>
     <row r="32">
-      <c r="A32" s="17" t="n"/>
-      <c r="B32" s="45" t="n"/>
+      <c r="A32" s="17" t="inlineStr">
+        <is>
+          <t>Čáp Jakub</t>
+        </is>
+      </c>
+      <c r="B32" s="45" t="inlineStr">
+        <is>
+          <t>Lutych</t>
+        </is>
+      </c>
       <c r="C32" s="45" t="n"/>
-      <c r="D32" s="45" t="n"/>
+      <c r="D32" s="45" t="inlineStr">
+        <is>
+          <t>Menen</t>
+        </is>
+      </c>
       <c r="E32" s="45" t="n"/>
-      <c r="F32" s="46" t="n"/>
-      <c r="G32" s="46" t="n"/>
-      <c r="H32" s="68" t="n"/>
+      <c r="F32" s="46" t="n">
+        <v>45558</v>
+      </c>
+      <c r="G32" s="46" t="inlineStr">
+        <is>
+          <t>2,5h</t>
+        </is>
+      </c>
+      <c r="H32" s="71" t="n"/>
       <c r="I32" s="24" t="n"/>
-      <c r="J32" s="25" t="n"/>
+      <c r="J32" s="25" t="n">
+        <v>200</v>
+      </c>
       <c r="K32" s="25" t="n"/>
     </row>
     <row r="33">
@@ -4174,7 +4218,7 @@
       <c r="E33" s="45" t="n"/>
       <c r="F33" s="46" t="n"/>
       <c r="G33" s="46" t="n"/>
-      <c r="H33" s="68" t="n"/>
+      <c r="H33" s="71" t="n"/>
       <c r="I33" s="24" t="n"/>
     </row>
     <row r="34">
@@ -4185,7 +4229,7 @@
       <c r="E34" s="18" t="n"/>
       <c r="F34" s="29" t="n"/>
       <c r="G34" s="29" t="n"/>
-      <c r="H34" s="68" t="n"/>
+      <c r="H34" s="71" t="n"/>
       <c r="I34" s="24" t="n"/>
     </row>
     <row r="35">
@@ -4202,31 +4246,31 @@
           <t>Týden 39</t>
         </is>
       </c>
-      <c r="B80" s="88" t="n">
+      <c r="B80" s="36" t="n">
         <v>45558</v>
       </c>
-      <c r="C80" s="88" t="n"/>
-      <c r="D80" s="88" t="n">
+      <c r="C80" s="36" t="n"/>
+      <c r="D80" s="36" t="n">
         <v>45559</v>
       </c>
-      <c r="E80" s="88" t="n"/>
-      <c r="F80" s="88" t="n">
+      <c r="E80" s="36" t="n"/>
+      <c r="F80" s="36" t="n">
         <v>45560</v>
       </c>
-      <c r="G80" s="88" t="n"/>
-      <c r="H80" s="88" t="n">
+      <c r="G80" s="36" t="n"/>
+      <c r="H80" s="36" t="n">
         <v>45561</v>
       </c>
-      <c r="I80" s="88" t="n"/>
-      <c r="J80" s="88" t="n">
+      <c r="I80" s="36" t="n"/>
+      <c r="J80" s="36" t="n">
         <v>45562</v>
       </c>
-      <c r="K80" s="88" t="n"/>
-      <c r="L80" s="88" t="n">
+      <c r="K80" s="36" t="n"/>
+      <c r="L80" s="36" t="n">
         <v>45563</v>
       </c>
-      <c r="M80" s="88" t="n"/>
-      <c r="N80" s="88" t="n">
+      <c r="M80" s="36" t="n"/>
+      <c r="N80" s="36" t="n">
         <v>45564</v>
       </c>
     </row>
@@ -4288,106 +4332,105 @@
   </sheetPr>
   <dimension ref="A1:S80"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5:C5"/>
+    <sheetView topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="P16" sqref="P16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="8.5703125" defaultRowHeight="15"/>
   <cols>
-    <col width="28.515625" customWidth="1" style="67" min="1" max="1"/>
-    <col width="5.6484375" customWidth="1" style="67" min="2" max="14"/>
-    <col width="5.6484375" customWidth="1" style="81" min="15" max="15"/>
-    <col width="13.1796875" customWidth="1" style="67" min="16" max="16"/>
-    <col width="8.609375" customWidth="1" style="67" min="17" max="101"/>
-    <col width="8.609375" customWidth="1" style="67" min="102" max="16384"/>
+    <col width="28.5703125" customWidth="1" style="70" min="1" max="1"/>
+    <col width="5.7109375" customWidth="1" style="70" min="2" max="14"/>
+    <col width="5.7109375" customWidth="1" style="87" min="15" max="15"/>
+    <col width="13.140625" customWidth="1" style="70" min="16" max="16"/>
+    <col width="8.5703125" customWidth="1" style="70" min="17" max="102"/>
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="71" t="n"/>
+      <c r="A1" s="74" t="n"/>
     </row>
     <row r="2"/>
     <row r="3">
-      <c r="B3" s="85">
+      <c r="B3" s="81">
         <f>A80</f>
         <v/>
       </c>
-      <c r="C3" s="61" t="n"/>
-      <c r="D3" s="62" t="n"/>
+      <c r="C3" s="64" t="n"/>
+      <c r="D3" s="65" t="n"/>
       <c r="E3" s="24" t="n"/>
     </row>
     <row r="4">
-      <c r="B4" s="68" t="inlineStr">
+      <c r="B4" s="71" t="inlineStr">
         <is>
           <t>NÁZEV PROJEKTU : Larfrost</t>
         </is>
       </c>
-      <c r="C4" s="61" t="n"/>
-      <c r="D4" s="61" t="n"/>
-      <c r="E4" s="61" t="n"/>
-      <c r="F4" s="61" t="n"/>
-      <c r="G4" s="61" t="n"/>
-      <c r="H4" s="61" t="n"/>
-      <c r="I4" s="61" t="n"/>
-      <c r="J4" s="61" t="n"/>
-      <c r="K4" s="61" t="n"/>
-      <c r="L4" s="61" t="n"/>
-      <c r="M4" s="61" t="n"/>
-      <c r="N4" s="61" t="n"/>
-      <c r="O4" s="61" t="n"/>
-      <c r="P4" s="62" t="n"/>
+      <c r="C4" s="64" t="n"/>
+      <c r="D4" s="64" t="n"/>
+      <c r="E4" s="64" t="n"/>
+      <c r="F4" s="64" t="n"/>
+      <c r="G4" s="64" t="n"/>
+      <c r="H4" s="64" t="n"/>
+      <c r="I4" s="64" t="n"/>
+      <c r="J4" s="64" t="n"/>
+      <c r="K4" s="64" t="n"/>
+      <c r="L4" s="64" t="n"/>
+      <c r="M4" s="64" t="n"/>
+      <c r="N4" s="64" t="n"/>
+      <c r="O4" s="64" t="n"/>
+      <c r="P4" s="65" t="n"/>
     </row>
     <row r="5">
-      <c r="A5" s="71" t="n"/>
-      <c r="B5" s="87" t="inlineStr">
+      <c r="A5" s="74" t="n"/>
+      <c r="B5" s="83" t="inlineStr">
         <is>
           <t>Pondělí</t>
         </is>
       </c>
-      <c r="C5" s="62" t="n"/>
-      <c r="D5" s="77" t="inlineStr">
+      <c r="C5" s="65" t="n"/>
+      <c r="D5" s="84" t="inlineStr">
         <is>
           <t>Úterý</t>
         </is>
       </c>
-      <c r="E5" s="62" t="n"/>
-      <c r="F5" s="77" t="inlineStr">
+      <c r="E5" s="65" t="n"/>
+      <c r="F5" s="84" t="inlineStr">
         <is>
           <t>Středa</t>
         </is>
       </c>
-      <c r="G5" s="62" t="n"/>
-      <c r="H5" s="77" t="inlineStr">
+      <c r="G5" s="65" t="n"/>
+      <c r="H5" s="84" t="inlineStr">
         <is>
           <t>Čtvrtek</t>
         </is>
       </c>
-      <c r="I5" s="62" t="n"/>
-      <c r="J5" s="77" t="inlineStr">
+      <c r="I5" s="65" t="n"/>
+      <c r="J5" s="84" t="inlineStr">
         <is>
           <t>Pátek</t>
         </is>
       </c>
-      <c r="K5" s="62" t="n"/>
-      <c r="L5" s="77" t="inlineStr">
+      <c r="K5" s="65" t="n"/>
+      <c r="L5" s="84" t="inlineStr">
         <is>
           <t>Sobota</t>
         </is>
       </c>
-      <c r="M5" s="62" t="n"/>
-      <c r="N5" s="82" t="inlineStr">
+      <c r="M5" s="65" t="n"/>
+      <c r="N5" s="86" t="inlineStr">
         <is>
           <t>Neděle</t>
         </is>
       </c>
-      <c r="O5" s="62" t="n"/>
-      <c r="P5" s="63" t="inlineStr">
+      <c r="O5" s="65" t="n"/>
+      <c r="P5" s="66" t="inlineStr">
         <is>
           <t>HODINY CELKEM</t>
         </is>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="70" t="inlineStr">
+    <row r="6" ht="15.75" customHeight="1" s="70">
+      <c r="A6" s="73" t="inlineStr">
         <is>
           <t>Jméno pracovníka:</t>
         </is>
@@ -4422,15 +4465,15 @@
         <v/>
       </c>
       <c r="M6" s="80" t="n"/>
-      <c r="N6" s="86">
+      <c r="N6" s="82">
         <f>N80</f>
         <v/>
       </c>
       <c r="O6" s="80" t="n"/>
-      <c r="P6" s="64" t="n"/>
+      <c r="P6" s="67" t="n"/>
     </row>
     <row r="7">
-      <c r="A7" s="71" t="n"/>
+      <c r="A7" s="74" t="n"/>
       <c r="B7" s="41" t="inlineStr">
         <is>
           <t>07:00</t>
@@ -4441,35 +4484,59 @@
           <t>18:00</t>
         </is>
       </c>
-      <c r="D7" s="73" t="inlineStr">
+      <c r="D7" s="89" t="inlineStr">
         <is>
           <t>07:00</t>
         </is>
       </c>
-      <c r="E7" s="73" t="inlineStr">
+      <c r="E7" s="89" t="inlineStr">
         <is>
           <t>18:00</t>
         </is>
       </c>
-      <c r="F7" s="73" t="inlineStr">
+      <c r="F7" s="89" t="inlineStr">
         <is>
           <t>07:00</t>
         </is>
       </c>
-      <c r="G7" s="73" t="inlineStr">
+      <c r="G7" s="89" t="inlineStr">
         <is>
           <t>18:00</t>
         </is>
       </c>
-      <c r="H7" s="73" t="n"/>
-      <c r="I7" s="73" t="n"/>
-      <c r="J7" s="73" t="n"/>
-      <c r="K7" s="73" t="n"/>
-      <c r="L7" s="41" t="n"/>
-      <c r="M7" s="41" t="n"/>
-      <c r="N7" s="73" t="n"/>
+      <c r="H7" s="89" t="inlineStr">
+        <is>
+          <t>07:00</t>
+        </is>
+      </c>
+      <c r="I7" s="89" t="inlineStr">
+        <is>
+          <t>18:00</t>
+        </is>
+      </c>
+      <c r="J7" s="89" t="inlineStr">
+        <is>
+          <t>07:00</t>
+        </is>
+      </c>
+      <c r="K7" s="89" t="inlineStr">
+        <is>
+          <t>18:00</t>
+        </is>
+      </c>
+      <c r="L7" s="41" t="inlineStr">
+        <is>
+          <t>06:00</t>
+        </is>
+      </c>
+      <c r="M7" s="41" t="inlineStr">
+        <is>
+          <t>14:30</t>
+        </is>
+      </c>
+      <c r="N7" s="89" t="n"/>
       <c r="O7" s="42" t="n"/>
-      <c r="P7" s="65" t="n"/>
+      <c r="P7" s="68" t="n"/>
     </row>
     <row r="8">
       <c r="A8" s="37" t="inlineStr">
@@ -4480,23 +4547,29 @@
       <c r="B8" s="76" t="n">
         <v>10</v>
       </c>
-      <c r="C8" s="74" t="n"/>
+      <c r="C8" s="77" t="n"/>
       <c r="D8" s="76" t="n">
         <v>10</v>
       </c>
-      <c r="E8" s="74" t="n"/>
-      <c r="F8" s="83" t="n">
+      <c r="E8" s="77" t="n"/>
+      <c r="F8" s="85" t="n">
         <v>10</v>
       </c>
-      <c r="G8" s="74" t="n"/>
-      <c r="H8" s="83" t="n"/>
-      <c r="I8" s="74" t="n"/>
-      <c r="J8" s="83" t="n"/>
-      <c r="K8" s="74" t="n"/>
-      <c r="L8" s="83" t="n"/>
-      <c r="M8" s="74" t="n"/>
-      <c r="N8" s="84" t="n"/>
-      <c r="O8" s="74" t="n"/>
+      <c r="G8" s="77" t="n"/>
+      <c r="H8" s="85" t="n">
+        <v>10</v>
+      </c>
+      <c r="I8" s="77" t="n"/>
+      <c r="J8" s="85" t="n">
+        <v>10</v>
+      </c>
+      <c r="K8" s="77" t="n"/>
+      <c r="L8" s="85" t="n">
+        <v>8</v>
+      </c>
+      <c r="M8" s="77" t="n"/>
+      <c r="N8" s="78" t="n"/>
+      <c r="O8" s="77" t="n"/>
       <c r="P8" s="39">
         <f>SUM(B8:N8)</f>
         <v/>
@@ -4511,23 +4584,29 @@
       <c r="B9" s="76" t="n">
         <v>10</v>
       </c>
-      <c r="C9" s="74" t="n"/>
+      <c r="C9" s="77" t="n"/>
       <c r="D9" s="76" t="n">
         <v>10</v>
       </c>
-      <c r="E9" s="74" t="n"/>
+      <c r="E9" s="77" t="n"/>
       <c r="F9" s="76" t="n">
         <v>10</v>
       </c>
-      <c r="G9" s="74" t="n"/>
-      <c r="H9" s="76" t="n"/>
-      <c r="I9" s="74" t="n"/>
-      <c r="J9" s="76" t="n"/>
-      <c r="K9" s="74" t="n"/>
-      <c r="L9" s="76" t="n"/>
-      <c r="M9" s="74" t="n"/>
-      <c r="N9" s="84" t="n"/>
-      <c r="O9" s="74" t="n"/>
+      <c r="G9" s="77" t="n"/>
+      <c r="H9" s="76" t="n">
+        <v>10</v>
+      </c>
+      <c r="I9" s="77" t="n"/>
+      <c r="J9" s="76" t="n">
+        <v>10</v>
+      </c>
+      <c r="K9" s="77" t="n"/>
+      <c r="L9" s="76" t="n">
+        <v>8</v>
+      </c>
+      <c r="M9" s="77" t="n"/>
+      <c r="N9" s="78" t="n"/>
+      <c r="O9" s="77" t="n"/>
       <c r="P9" s="39">
         <f>SUM(B9:N9)</f>
         <v/>
@@ -4542,23 +4621,29 @@
       <c r="B10" s="76" t="n">
         <v>10</v>
       </c>
-      <c r="C10" s="74" t="n"/>
+      <c r="C10" s="77" t="n"/>
       <c r="D10" s="76" t="n">
         <v>10</v>
       </c>
-      <c r="E10" s="74" t="n"/>
+      <c r="E10" s="77" t="n"/>
       <c r="F10" s="76" t="n">
         <v>10</v>
       </c>
-      <c r="G10" s="74" t="n"/>
-      <c r="H10" s="78" t="n"/>
-      <c r="I10" s="74" t="n"/>
-      <c r="J10" s="76" t="n"/>
-      <c r="K10" s="74" t="n"/>
-      <c r="L10" s="76" t="n"/>
-      <c r="M10" s="74" t="n"/>
+      <c r="G10" s="77" t="n"/>
+      <c r="H10" s="88" t="n">
+        <v>10</v>
+      </c>
+      <c r="I10" s="77" t="n"/>
+      <c r="J10" s="76" t="n">
+        <v>10</v>
+      </c>
+      <c r="K10" s="77" t="n"/>
+      <c r="L10" s="76" t="n">
+        <v>8</v>
+      </c>
+      <c r="M10" s="77" t="n"/>
       <c r="N10" s="76" t="n"/>
-      <c r="O10" s="74" t="n"/>
+      <c r="O10" s="77" t="n"/>
       <c r="P10" s="39">
         <f>SUM(B10:O10)</f>
         <v/>
@@ -4573,23 +4658,29 @@
       <c r="B11" s="76" t="n">
         <v>10</v>
       </c>
-      <c r="C11" s="74" t="n"/>
+      <c r="C11" s="77" t="n"/>
       <c r="D11" s="76" t="n">
         <v>10</v>
       </c>
-      <c r="E11" s="74" t="n"/>
-      <c r="F11" s="73" t="n">
+      <c r="E11" s="77" t="n"/>
+      <c r="F11" s="89" t="n">
         <v>10</v>
       </c>
-      <c r="G11" s="74" t="n"/>
-      <c r="H11" s="78" t="n"/>
-      <c r="I11" s="74" t="n"/>
-      <c r="J11" s="76" t="n"/>
-      <c r="K11" s="74" t="n"/>
-      <c r="L11" s="76" t="n"/>
-      <c r="M11" s="74" t="n"/>
+      <c r="G11" s="77" t="n"/>
+      <c r="H11" s="88" t="n">
+        <v>10</v>
+      </c>
+      <c r="I11" s="77" t="n"/>
+      <c r="J11" s="76" t="n">
+        <v>10</v>
+      </c>
+      <c r="K11" s="77" t="n"/>
+      <c r="L11" s="76" t="n">
+        <v>8</v>
+      </c>
+      <c r="M11" s="77" t="n"/>
       <c r="N11" s="76" t="n"/>
-      <c r="O11" s="74" t="n"/>
+      <c r="O11" s="77" t="n"/>
       <c r="P11" s="39">
         <f>SUM(B11:O11)</f>
         <v/>
@@ -4604,23 +4695,29 @@
       <c r="B12" s="76" t="n">
         <v>10</v>
       </c>
-      <c r="C12" s="74" t="n"/>
+      <c r="C12" s="77" t="n"/>
       <c r="D12" s="76" t="n">
         <v>10</v>
       </c>
-      <c r="E12" s="74" t="n"/>
-      <c r="F12" s="73" t="n">
+      <c r="E12" s="77" t="n"/>
+      <c r="F12" s="89" t="n">
         <v>10</v>
       </c>
-      <c r="G12" s="74" t="n"/>
-      <c r="H12" s="78" t="n"/>
-      <c r="I12" s="74" t="n"/>
-      <c r="J12" s="76" t="n"/>
-      <c r="K12" s="74" t="n"/>
-      <c r="L12" s="76" t="n"/>
-      <c r="M12" s="74" t="n"/>
+      <c r="G12" s="77" t="n"/>
+      <c r="H12" s="88" t="n">
+        <v>10</v>
+      </c>
+      <c r="I12" s="77" t="n"/>
+      <c r="J12" s="76" t="n">
+        <v>10</v>
+      </c>
+      <c r="K12" s="77" t="n"/>
+      <c r="L12" s="76" t="n">
+        <v>0</v>
+      </c>
+      <c r="M12" s="77" t="n"/>
       <c r="N12" s="76" t="n"/>
-      <c r="O12" s="74" t="n"/>
+      <c r="O12" s="77" t="n"/>
       <c r="P12" s="39">
         <f>SUM(B12:O12)</f>
         <v/>
@@ -4634,14 +4731,14 @@
       <c r="E13" s="76" t="n"/>
       <c r="F13" s="49" t="n"/>
       <c r="G13" s="49" t="n"/>
-      <c r="H13" s="78" t="n"/>
-      <c r="I13" s="78" t="n"/>
+      <c r="H13" s="88" t="n"/>
+      <c r="I13" s="88" t="n"/>
       <c r="J13" s="76" t="n"/>
       <c r="K13" s="76" t="n"/>
       <c r="L13" s="76" t="n"/>
       <c r="M13" s="76" t="n"/>
       <c r="N13" s="76" t="n"/>
-      <c r="O13" s="84" t="n"/>
+      <c r="O13" s="78" t="n"/>
       <c r="P13" s="39">
         <f>SUM(B13:O13)</f>
         <v/>
@@ -4662,7 +4759,7 @@
       <c r="L14" s="76" t="n"/>
       <c r="M14" s="76" t="n"/>
       <c r="N14" s="76" t="n"/>
-      <c r="O14" s="84" t="n"/>
+      <c r="O14" s="78" t="n"/>
       <c r="P14" s="39">
         <f>SUM(B14:O14)</f>
         <v/>
@@ -4683,9 +4780,9 @@
       <c r="L15" s="76" t="n"/>
       <c r="M15" s="76" t="n"/>
       <c r="N15" s="76" t="n"/>
-      <c r="O15" s="84" t="n"/>
+      <c r="O15" s="78" t="n"/>
       <c r="P15" s="39">
-        <f>SUM(H15:O15)</f>
+        <f>SUM(B15:O15)</f>
         <v/>
       </c>
     </row>
@@ -4704,7 +4801,7 @@
       <c r="L16" s="76" t="n"/>
       <c r="M16" s="76" t="n"/>
       <c r="N16" s="76" t="n"/>
-      <c r="O16" s="84" t="n"/>
+      <c r="O16" s="78" t="n"/>
       <c r="P16" s="39">
         <f>SUM(B16:O16)</f>
         <v/>
@@ -4725,7 +4822,7 @@
       <c r="L17" s="76" t="n"/>
       <c r="M17" s="76" t="n"/>
       <c r="N17" s="76" t="n"/>
-      <c r="O17" s="84" t="n"/>
+      <c r="O17" s="78" t="n"/>
       <c r="P17" s="39">
         <f>SUM(B17:O17)</f>
         <v/>
@@ -4746,7 +4843,7 @@
       <c r="L18" s="76" t="n"/>
       <c r="M18" s="76" t="n"/>
       <c r="N18" s="76" t="n"/>
-      <c r="O18" s="84" t="n"/>
+      <c r="O18" s="78" t="n"/>
       <c r="P18" s="39">
         <f>SUM(B18:O18)</f>
         <v/>
@@ -4767,7 +4864,7 @@
       <c r="L19" s="76" t="n"/>
       <c r="M19" s="76" t="n"/>
       <c r="N19" s="76" t="n"/>
-      <c r="O19" s="84" t="n"/>
+      <c r="O19" s="78" t="n"/>
       <c r="P19" s="39">
         <f>SUM(B19:O19)</f>
         <v/>
@@ -4788,7 +4885,7 @@
       <c r="L20" s="76" t="n"/>
       <c r="M20" s="76" t="n"/>
       <c r="N20" s="76" t="n"/>
-      <c r="O20" s="84" t="n"/>
+      <c r="O20" s="78" t="n"/>
       <c r="P20" s="39">
         <f>SUM(B20:O20)</f>
         <v/>
@@ -4809,7 +4906,7 @@
       <c r="L21" s="76" t="n"/>
       <c r="M21" s="76" t="n"/>
       <c r="N21" s="76" t="n"/>
-      <c r="O21" s="84" t="n"/>
+      <c r="O21" s="78" t="n"/>
       <c r="P21" s="39">
         <f>SUM(B21:O21)</f>
         <v/>
@@ -4830,7 +4927,7 @@
       <c r="L22" s="76" t="n"/>
       <c r="M22" s="76" t="n"/>
       <c r="N22" s="76" t="n"/>
-      <c r="O22" s="84" t="n"/>
+      <c r="O22" s="78" t="n"/>
       <c r="P22" s="39">
         <f>SUM(B22:O22)</f>
         <v/>
@@ -4869,7 +4966,7 @@
         <v>0.5208333333333334</v>
       </c>
       <c r="G25" s="22" t="n"/>
-      <c r="J25" s="66" t="inlineStr">
+      <c r="J25" s="69" t="inlineStr">
         <is>
           <t>HODINY PROSÍM VYPLŇOVAT V ČISTÉM ČASE, BEZ PŘESTÁVEK.</t>
         </is>
@@ -4877,9 +4974,9 @@
     </row>
     <row r="26">
       <c r="A26" s="17" t="n"/>
-      <c r="D26" s="68" t="n"/>
-      <c r="E26" s="68" t="n"/>
-      <c r="F26" s="68" t="n"/>
+      <c r="D26" s="71" t="n"/>
+      <c r="E26" s="71" t="n"/>
+      <c r="F26" s="71" t="n"/>
       <c r="G26" s="24" t="n"/>
       <c r="J26" s="4" t="n"/>
       <c r="K26" s="4" t="n"/>
@@ -4893,38 +4990,38 @@
     </row>
     <row r="27">
       <c r="A27" s="17" t="n"/>
-      <c r="D27" s="68" t="n"/>
-      <c r="E27" s="68" t="n"/>
-      <c r="F27" s="68" t="n"/>
+      <c r="D27" s="71" t="n"/>
+      <c r="E27" s="71" t="n"/>
+      <c r="F27" s="71" t="n"/>
       <c r="G27" s="24" t="n"/>
     </row>
     <row r="28">
       <c r="A28" s="17" t="n"/>
-      <c r="D28" s="68" t="n"/>
-      <c r="E28" s="68" t="n"/>
-      <c r="F28" s="68" t="n"/>
+      <c r="D28" s="71" t="n"/>
+      <c r="E28" s="71" t="n"/>
+      <c r="F28" s="71" t="n"/>
       <c r="G28" s="24" t="n"/>
     </row>
     <row r="29">
-      <c r="J29" s="66" t="inlineStr">
+      <c r="J29" s="69" t="inlineStr">
         <is>
           <t>HODINY PROSÍM POSÍLAT TÝDNĚ NA EMAIL: hodiny@czechmontage.cz</t>
         </is>
       </c>
     </row>
     <row r="30">
-      <c r="A30" s="75" t="inlineStr">
+      <c r="A30" s="90" t="inlineStr">
         <is>
           <t>Přejezdy z projektu na projekt - pouze pracovní cesty z jednoho projektu na druhý!</t>
         </is>
       </c>
-      <c r="B30" s="61" t="n"/>
-      <c r="C30" s="61" t="n"/>
-      <c r="D30" s="61" t="n"/>
-      <c r="E30" s="61" t="n"/>
-      <c r="F30" s="61" t="n"/>
-      <c r="G30" s="61" t="n"/>
-      <c r="H30" s="62" t="n"/>
+      <c r="B30" s="64" t="n"/>
+      <c r="C30" s="64" t="n"/>
+      <c r="D30" s="64" t="n"/>
+      <c r="E30" s="64" t="n"/>
+      <c r="F30" s="64" t="n"/>
+      <c r="G30" s="64" t="n"/>
+      <c r="H30" s="65" t="n"/>
       <c r="I30" s="23" t="n"/>
     </row>
     <row r="31">
@@ -4933,25 +5030,25 @@
           <t>Jméno pracovníka</t>
         </is>
       </c>
-      <c r="B31" s="68" t="inlineStr">
+      <c r="B31" s="71" t="inlineStr">
         <is>
           <t>Odkud</t>
         </is>
       </c>
-      <c r="C31" s="68" t="n"/>
-      <c r="D31" s="68" t="inlineStr">
+      <c r="C31" s="71" t="n"/>
+      <c r="D31" s="71" t="inlineStr">
         <is>
           <t xml:space="preserve">Kam </t>
         </is>
       </c>
-      <c r="E31" s="68" t="n"/>
-      <c r="F31" s="68" t="inlineStr">
+      <c r="E31" s="71" t="n"/>
+      <c r="F31" s="71" t="inlineStr">
         <is>
           <t xml:space="preserve">Kdy </t>
         </is>
       </c>
-      <c r="G31" s="68" t="n"/>
-      <c r="H31" s="68" t="inlineStr">
+      <c r="G31" s="71" t="n"/>
+      <c r="H31" s="71" t="inlineStr">
         <is>
           <t>Délka cesty</t>
         </is>
@@ -4965,27 +5062,51 @@
       <c r="K31" s="25" t="n"/>
     </row>
     <row r="32">
-      <c r="A32" s="17" t="n"/>
-      <c r="B32" s="45" t="n"/>
+      <c r="A32" s="17" t="inlineStr">
+        <is>
+          <t>Drdla Josef</t>
+        </is>
+      </c>
+      <c r="B32" s="45" t="inlineStr">
+        <is>
+          <t>Menen</t>
+        </is>
+      </c>
       <c r="C32" s="45" t="n"/>
-      <c r="D32" s="45" t="n"/>
+      <c r="D32" s="45" t="inlineStr">
+        <is>
+          <t>Lutych</t>
+        </is>
+      </c>
       <c r="E32" s="45" t="n"/>
-      <c r="F32" s="46" t="n"/>
+      <c r="F32" s="46" t="n">
+        <v>45569</v>
+      </c>
       <c r="G32" s="46" t="n"/>
-      <c r="H32" s="68" t="n"/>
+      <c r="H32" s="71" t="n"/>
       <c r="I32" s="24" t="n"/>
       <c r="J32" s="25" t="n"/>
       <c r="K32" s="25" t="n"/>
     </row>
     <row r="33">
       <c r="A33" s="17" t="n"/>
-      <c r="B33" s="45" t="n"/>
+      <c r="B33" s="45" t="inlineStr">
+        <is>
+          <t>Lutych</t>
+        </is>
+      </c>
       <c r="C33" s="45" t="n"/>
-      <c r="D33" s="45" t="n"/>
+      <c r="D33" s="45" t="inlineStr">
+        <is>
+          <t>Menen</t>
+        </is>
+      </c>
       <c r="E33" s="45" t="n"/>
-      <c r="F33" s="46" t="n"/>
+      <c r="F33" s="46" t="n">
+        <v>45569</v>
+      </c>
       <c r="G33" s="46" t="n"/>
-      <c r="H33" s="68" t="n"/>
+      <c r="H33" s="71" t="n"/>
       <c r="I33" s="24" t="n"/>
     </row>
     <row r="34">
@@ -4996,7 +5117,7 @@
       <c r="E34" s="18" t="n"/>
       <c r="F34" s="29" t="n"/>
       <c r="G34" s="29" t="n"/>
-      <c r="H34" s="68" t="n"/>
+      <c r="H34" s="71" t="n"/>
       <c r="I34" s="24" t="n"/>
     </row>
     <row r="35">
@@ -5013,29 +5134,43 @@
           <t>Týden 40</t>
         </is>
       </c>
-      <c r="B80" s="88" t="n">
-        <v>45565</v>
-      </c>
-      <c r="C80" s="88" t="n"/>
-      <c r="D80" s="88" t="inlineStr">
+      <c r="B80" s="36" t="inlineStr">
+        <is>
+          <t>30.09.2024</t>
+        </is>
+      </c>
+      <c r="C80" s="36" t="n"/>
+      <c r="D80" s="36" t="inlineStr">
         <is>
           <t>01.10.2024</t>
         </is>
       </c>
-      <c r="E80" s="88" t="n"/>
-      <c r="F80" s="88" t="inlineStr">
+      <c r="E80" s="36" t="n"/>
+      <c r="F80" s="36" t="inlineStr">
         <is>
           <t>02.10.2024</t>
         </is>
       </c>
-      <c r="G80" s="88" t="n"/>
-      <c r="H80" s="88" t="n"/>
-      <c r="I80" s="88" t="n"/>
-      <c r="J80" s="88" t="n"/>
-      <c r="K80" s="88" t="n"/>
-      <c r="L80" s="88" t="n"/>
-      <c r="M80" s="88" t="n"/>
-      <c r="N80" s="88" t="n"/>
+      <c r="G80" s="36" t="n"/>
+      <c r="H80" s="36" t="inlineStr">
+        <is>
+          <t>03.10.2024</t>
+        </is>
+      </c>
+      <c r="I80" s="36" t="n"/>
+      <c r="J80" s="36" t="inlineStr">
+        <is>
+          <t>04.10.2024</t>
+        </is>
+      </c>
+      <c r="K80" s="36" t="n"/>
+      <c r="L80" s="36" t="inlineStr">
+        <is>
+          <t>05.10.2024</t>
+        </is>
+      </c>
+      <c r="M80" s="36" t="n"/>
+      <c r="N80" s="36" t="n"/>
     </row>
   </sheetData>
   <mergeCells count="57">
@@ -5066,8 +5201,8 @@
     <mergeCell ref="P5:P7"/>
     <mergeCell ref="N5:O5"/>
     <mergeCell ref="J29:S29"/>
+    <mergeCell ref="B8:C8"/>
     <mergeCell ref="L8:M8"/>
-    <mergeCell ref="B8:C8"/>
     <mergeCell ref="N8:O8"/>
     <mergeCell ref="F8:G8"/>
     <mergeCell ref="H11:I11"/>
@@ -5080,13 +5215,13 @@
     <mergeCell ref="A1:A5"/>
     <mergeCell ref="D9:E9"/>
     <mergeCell ref="F9:G9"/>
+    <mergeCell ref="D12:E12"/>
     <mergeCell ref="L9:M9"/>
-    <mergeCell ref="D12:E12"/>
     <mergeCell ref="D8:E8"/>
     <mergeCell ref="N9:O9"/>
     <mergeCell ref="B6:C6"/>
+    <mergeCell ref="H12:I12"/>
     <mergeCell ref="B3:D3"/>
-    <mergeCell ref="H12:I12"/>
     <mergeCell ref="J12:K12"/>
     <mergeCell ref="L6:M6"/>
     <mergeCell ref="N6:O6"/>
